--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_14_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1633599.999170229</v>
+        <v>1588946.240021339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5564401.127241937</v>
+        <v>5564401.127241938</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9198982.861610398</v>
+        <v>9198982.86161039</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.5972447806327</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>174.3213805439912</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.29963510270288</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U11" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>14.58591930590194</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.04003102611303</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>32.52899854748281</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>150.3636391642181</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.3467494319119</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="V12" t="n">
         <v>219.7970535656594</v>
       </c>
       <c r="W12" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>167.0501657567671</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I13" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49162657257461</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7970535656594</v>
+        <v>216.0360819957492</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>89.38608307572721</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>198.621015646694</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>193.5972447806327</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>28.32741272070357</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>32.52899854748281</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>150.363639164218</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3467494319119</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>117.1874295158716</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>154.1708368859401</v>
       </c>
       <c r="I16" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49162657257461</v>
+        <v>29.4916265725746</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>9.470455788181056</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="U16" t="n">
-        <v>153.9639200575553</v>
-      </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>52.92482616839408</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>168.1009692932269</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>412.983415433112</v>
+        <v>340.6278957091439</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>163.2215642657812</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>32.52899854748281</v>
+        <v>32.52899854748289</v>
       </c>
       <c r="S18" t="n">
         <v>150.363639164218</v>
@@ -1991,7 +1991,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.6711514185862</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>122.0067947901178</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>102.6997407289941</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>182.7128943775282</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>174.6137303601256</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>412.983415433112</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>150.363639164218</v>
       </c>
       <c r="T21" t="n">
-        <v>194.3467494319124</v>
+        <v>194.3467494319119</v>
       </c>
       <c r="U21" t="n">
-        <v>224.5913046655197</v>
+        <v>224.5913046655194</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.11771216994011</v>
       </c>
       <c r="H22" t="n">
-        <v>24.76396658111727</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>224.7458397054146</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>132.2749547393697</v>
       </c>
       <c r="G23" t="n">
         <v>412.983415433112</v>
@@ -2338,7 +2338,7 @@
         <v>318.9789405005279</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>324.0802661515405</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6476293484707</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0064836725184</v>
+        <v>1.013297474976157</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>76.67912988519826</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>412.983415433112</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>24.29963510270288</v>
       </c>
       <c r="S26" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>162.2887366916781</v>
       </c>
       <c r="X26" t="n">
-        <v>144.591465854295</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.470455788181056</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>286.0064836725184</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>250.6398023593709</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>202.808291457695</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>369.3802681042129</v>
+        <v>196.2343204363212</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I29" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>127.2222592012336</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.470455788181056</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>135.6476293484707</v>
       </c>
       <c r="S31" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>202.6119115736534</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>259.9608197420378</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I32" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.29963510270288</v>
       </c>
       <c r="S32" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3280555788869</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>166.5229915958203</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.7285503860173</v>
+        <v>126.9378716388052</v>
       </c>
       <c r="T34" t="n">
-        <v>99.1898584416506</v>
+        <v>224.7458397054146</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>86.67045671563771</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>318.9789405005279</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.29963510270288</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U35" t="n">
         <v>251.3280555788869</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>143.2568036852661</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3401,7 +3401,7 @@
         <v>194.3467494319119</v>
       </c>
       <c r="U36" t="n">
-        <v>224.5913046655197</v>
+        <v>224.5913046655194</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.4916265725746</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.470455788181056</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>135.6476293484707</v>
       </c>
       <c r="S37" t="n">
-        <v>207.7285503860173</v>
+        <v>169.5028442561688</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>193.1297742287337</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>202.4256187972536</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>273.8594170397648</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>32.52899854748281</v>
+        <v>32.52899854748289</v>
       </c>
       <c r="S39" t="n">
         <v>150.363639164218</v>
@@ -3638,7 +3638,7 @@
         <v>194.3467494319119</v>
       </c>
       <c r="U39" t="n">
-        <v>224.5913046655194</v>
+        <v>224.5913046655197</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>106.7981104653218</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>140.504697551307</v>
       </c>
       <c r="U40" t="n">
         <v>286.0064836725184</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.79401085582636</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="F41" t="n">
-        <v>219.7970535656594</v>
-      </c>
-      <c r="G41" t="n">
-        <v>193.5972447806328</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.29963510270288</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>53.68971322053232</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>64.08119949382765</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>150.363639164218</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>56.6601814457555</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="U43" t="n">
+      <c r="X43" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>112.2488372871529</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.5972447806328</v>
+        <v>193.5972447806327</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>51.85050786447964</v>
       </c>
       <c r="E45" t="n">
-        <v>22.57166085323183</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.0219496994826</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>150.363639164218</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.3467494319119</v>
       </c>
       <c r="U45" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>108.3588741622298</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.470455788181056</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>219.7970535656594</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>219.7970535656594</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>65.97405392440605</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.58376428525275</v>
+        <v>637.7004185027375</v>
       </c>
       <c r="C11" t="n">
-        <v>17.58376428525275</v>
+        <v>415.6831926788392</v>
       </c>
       <c r="D11" t="n">
-        <v>17.58376428525275</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="E11" t="n">
         <v>17.58376428525275</v>
@@ -5041,52 +5041,52 @@
         <v>17.58376428525275</v>
       </c>
       <c r="J11" t="n">
-        <v>17.58376428525275</v>
+        <v>174.1712846035703</v>
       </c>
       <c r="K11" t="n">
-        <v>40.80434206354737</v>
+        <v>197.391862381865</v>
       </c>
       <c r="L11" t="n">
-        <v>250.9788914543139</v>
+        <v>262.178260231273</v>
       </c>
       <c r="M11" t="n">
-        <v>353.9439435722324</v>
+        <v>365.1433123491917</v>
       </c>
       <c r="N11" t="n">
-        <v>571.5430266022352</v>
+        <v>474.2729098263881</v>
       </c>
       <c r="O11" t="n">
-        <v>661.5891312326346</v>
+        <v>631.8915791472351</v>
       </c>
       <c r="P11" t="n">
-        <v>879.1882142626374</v>
+        <v>675.1053703215409</v>
       </c>
       <c r="Q11" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="R11" t="n">
-        <v>879.1882142626374</v>
+        <v>854.6431283003114</v>
       </c>
       <c r="S11" t="n">
-        <v>879.1882142626374</v>
+        <v>854.6431283003114</v>
       </c>
       <c r="T11" t="n">
-        <v>879.1882142626374</v>
+        <v>637.7004185027375</v>
       </c>
       <c r="U11" t="n">
-        <v>657.1709884387391</v>
+        <v>637.7004185027375</v>
       </c>
       <c r="V11" t="n">
-        <v>657.1709884387391</v>
+        <v>637.7004185027375</v>
       </c>
       <c r="W11" t="n">
-        <v>657.1709884387391</v>
+        <v>637.7004185027375</v>
       </c>
       <c r="X11" t="n">
-        <v>435.1537626148407</v>
+        <v>637.7004185027375</v>
       </c>
       <c r="Y11" t="n">
-        <v>213.1365367909424</v>
+        <v>637.7004185027375</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.88682592779116</v>
+        <v>32.31701610939612</v>
       </c>
       <c r="C12" t="n">
-        <v>43.88682592779116</v>
+        <v>32.31701610939612</v>
       </c>
       <c r="D12" t="n">
-        <v>43.88682592779116</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="E12" t="n">
-        <v>43.88682592779116</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="F12" t="n">
-        <v>43.88682592779116</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="G12" t="n">
-        <v>43.88682592779116</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H12" t="n">
-        <v>43.88682592779116</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I12" t="n">
         <v>17.58376428525275</v>
       </c>
       <c r="J12" t="n">
-        <v>17.58376428525275</v>
+        <v>118.6282638368178</v>
       </c>
       <c r="K12" t="n">
-        <v>44.59711335410591</v>
+        <v>145.641612905671</v>
       </c>
       <c r="L12" t="n">
-        <v>262.1961963841087</v>
+        <v>227.1288720093502</v>
       </c>
       <c r="M12" t="n">
-        <v>382.2805077385964</v>
+        <v>341.0936063455975</v>
       </c>
       <c r="N12" t="n">
-        <v>513.3099782729271</v>
+        <v>472.1230768799281</v>
       </c>
       <c r="O12" t="n">
-        <v>611.5120448082102</v>
+        <v>570.3251434152113</v>
       </c>
       <c r="P12" t="n">
         <v>671.4781212626965</v>
       </c>
       <c r="Q12" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="R12" t="n">
-        <v>846.3306399722508</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="S12" t="n">
-        <v>694.4481761700104</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="T12" t="n">
-        <v>694.4481761700104</v>
+        <v>682.8783663516153</v>
       </c>
       <c r="U12" t="n">
-        <v>694.4481761700104</v>
+        <v>460.861140527717</v>
       </c>
       <c r="V12" t="n">
-        <v>472.430950346112</v>
+        <v>238.8439147038186</v>
       </c>
       <c r="W12" t="n">
-        <v>250.4137245222137</v>
+        <v>238.8439147038186</v>
       </c>
       <c r="X12" t="n">
-        <v>43.88682592779116</v>
+        <v>32.31701610939612</v>
       </c>
       <c r="Y12" t="n">
-        <v>43.88682592779116</v>
+        <v>32.31701610939612</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>345.9237592028851</v>
+        <v>342.0494235203106</v>
       </c>
       <c r="C13" t="n">
-        <v>345.9237592028851</v>
+        <v>342.0494235203106</v>
       </c>
       <c r="D13" t="n">
-        <v>345.9237592028851</v>
+        <v>342.0494235203106</v>
       </c>
       <c r="E13" t="n">
-        <v>345.9237592028851</v>
+        <v>342.0494235203106</v>
       </c>
       <c r="F13" t="n">
-        <v>345.9237592028851</v>
+        <v>342.0494235203106</v>
       </c>
       <c r="G13" t="n">
-        <v>177.1862180344335</v>
+        <v>173.311882351859</v>
       </c>
       <c r="H13" t="n">
-        <v>177.1862180344335</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I13" t="n">
-        <v>47.37328607573215</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="J13" t="n">
         <v>17.58376428525275</v>
       </c>
       <c r="K13" t="n">
-        <v>99.50755206227242</v>
+        <v>99.50755206227245</v>
       </c>
       <c r="L13" t="n">
-        <v>260.145410180351</v>
+        <v>260.1454101803511</v>
       </c>
       <c r="M13" t="n">
-        <v>440.1084080985506</v>
+        <v>440.1084080985507</v>
       </c>
       <c r="N13" t="n">
-        <v>620.9335500581743</v>
+        <v>620.9335500581744</v>
       </c>
       <c r="O13" t="n">
-        <v>772.6182394997899</v>
+        <v>772.61823949979</v>
       </c>
       <c r="P13" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="Q13" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="R13" t="n">
-        <v>879.1882142626374</v>
+        <v>742.1704068399399</v>
       </c>
       <c r="S13" t="n">
-        <v>879.1882142626374</v>
+        <v>742.1704068399399</v>
       </c>
       <c r="T13" t="n">
-        <v>657.1709884387391</v>
+        <v>523.952142197769</v>
       </c>
       <c r="U13" t="n">
-        <v>657.1709884387391</v>
+        <v>523.952142197769</v>
       </c>
       <c r="V13" t="n">
-        <v>657.1709884387391</v>
+        <v>523.952142197769</v>
       </c>
       <c r="W13" t="n">
-        <v>657.1709884387391</v>
+        <v>523.952142197769</v>
       </c>
       <c r="X13" t="n">
-        <v>566.8820156349742</v>
+        <v>523.952142197769</v>
       </c>
       <c r="Y13" t="n">
-        <v>345.9237592028851</v>
+        <v>523.952142197769</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>683.6354417569478</v>
+        <v>440.2282786411653</v>
       </c>
       <c r="C14" t="n">
-        <v>683.6354417569478</v>
+        <v>218.2110528172669</v>
       </c>
       <c r="D14" t="n">
-        <v>683.6354417569478</v>
+        <v>218.2110528172669</v>
       </c>
       <c r="E14" t="n">
-        <v>461.6182159330494</v>
+        <v>218.2110528172669</v>
       </c>
       <c r="F14" t="n">
-        <v>239.6009901091511</v>
+        <v>218.2110528172669</v>
       </c>
       <c r="G14" t="n">
-        <v>17.58376428525275</v>
+        <v>218.2110528172669</v>
       </c>
       <c r="H14" t="n">
         <v>17.58376428525275</v>
@@ -5278,52 +5278,52 @@
         <v>17.58376428525275</v>
       </c>
       <c r="J14" t="n">
-        <v>17.58376428525275</v>
+        <v>174.1712846035703</v>
       </c>
       <c r="K14" t="n">
-        <v>40.80434206354737</v>
+        <v>197.391862381865</v>
       </c>
       <c r="L14" t="n">
-        <v>105.5907399129554</v>
+        <v>262.178260231273</v>
       </c>
       <c r="M14" t="n">
-        <v>226.3909651726291</v>
+        <v>365.1433123491917</v>
       </c>
       <c r="N14" t="n">
-        <v>443.9900482026318</v>
+        <v>474.2729098263881</v>
       </c>
       <c r="O14" t="n">
-        <v>661.5891312326346</v>
+        <v>631.8915791472351</v>
       </c>
       <c r="P14" t="n">
-        <v>879.1882142626374</v>
+        <v>675.1053703215409</v>
       </c>
       <c r="Q14" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="R14" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="S14" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="T14" t="n">
-        <v>879.1882142626374</v>
+        <v>662.2455044650636</v>
       </c>
       <c r="U14" t="n">
-        <v>879.1882142626374</v>
+        <v>662.2455044650636</v>
       </c>
       <c r="V14" t="n">
-        <v>879.1882142626374</v>
+        <v>662.2455044650636</v>
       </c>
       <c r="W14" t="n">
-        <v>879.1882142626374</v>
+        <v>662.2455044650636</v>
       </c>
       <c r="X14" t="n">
-        <v>683.6354417569478</v>
+        <v>662.2455044650636</v>
       </c>
       <c r="Y14" t="n">
-        <v>683.6354417569478</v>
+        <v>662.2455044650636</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>119.3943167653337</v>
+        <v>148.0078649680646</v>
       </c>
       <c r="C15" t="n">
-        <v>119.3943167653337</v>
+        <v>148.0078649680646</v>
       </c>
       <c r="D15" t="n">
         <v>119.3943167653337</v>
@@ -5360,49 +5360,49 @@
         <v>17.58376428525275</v>
       </c>
       <c r="K15" t="n">
-        <v>44.59711335410591</v>
+        <v>235.1828473152555</v>
       </c>
       <c r="L15" t="n">
-        <v>126.0843724577851</v>
+        <v>316.6701064189347</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0491067940323</v>
+        <v>430.634840755182</v>
       </c>
       <c r="N15" t="n">
-        <v>443.9900482026318</v>
+        <v>561.6643112895126</v>
       </c>
       <c r="O15" t="n">
-        <v>661.5891312326346</v>
+        <v>779.2633943195154</v>
       </c>
       <c r="P15" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="Q15" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="R15" t="n">
-        <v>846.3306399722508</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="S15" t="n">
-        <v>846.3306399722508</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="T15" t="n">
-        <v>650.0207920612286</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="U15" t="n">
-        <v>650.0207920612286</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="V15" t="n">
-        <v>531.6496511361057</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="W15" t="n">
-        <v>531.6496511361057</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="X15" t="n">
-        <v>325.1227525416832</v>
+        <v>520.7788518659746</v>
       </c>
       <c r="Y15" t="n">
-        <v>119.3943167653337</v>
+        <v>315.0504160896251</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>501.6518772694913</v>
+        <v>372.128225284967</v>
       </c>
       <c r="C16" t="n">
-        <v>501.6518772694913</v>
+        <v>203.1014041423384</v>
       </c>
       <c r="D16" t="n">
-        <v>501.6518772694913</v>
+        <v>203.1014041423384</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6518772694913</v>
+        <v>203.1014041423384</v>
       </c>
       <c r="F16" t="n">
-        <v>501.6518772694913</v>
+        <v>203.1014041423384</v>
       </c>
       <c r="G16" t="n">
-        <v>332.9143361010397</v>
+        <v>203.1014041423384</v>
       </c>
       <c r="H16" t="n">
-        <v>177.1862180344335</v>
+        <v>47.37328607573215</v>
       </c>
       <c r="I16" t="n">
         <v>47.37328607573215</v>
@@ -5439,7 +5439,7 @@
         <v>17.58376428525275</v>
       </c>
       <c r="K16" t="n">
-        <v>99.50755206227234</v>
+        <v>99.50755206227244</v>
       </c>
       <c r="L16" t="n">
         <v>260.145410180351</v>
@@ -5448,40 +5448,40 @@
         <v>440.1084080985506</v>
       </c>
       <c r="N16" t="n">
-        <v>620.9335500581743</v>
+        <v>620.9335500581744</v>
       </c>
       <c r="O16" t="n">
-        <v>772.6182394997899</v>
+        <v>772.61823949979</v>
       </c>
       <c r="P16" t="n">
-        <v>879.1882142626374</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="Q16" t="n">
-        <v>879.1882142626374</v>
+        <v>869.6220973048789</v>
       </c>
       <c r="R16" t="n">
-        <v>879.1882142626374</v>
+        <v>869.6220973048789</v>
       </c>
       <c r="S16" t="n">
-        <v>879.1882142626374</v>
+        <v>869.6220973048789</v>
       </c>
       <c r="T16" t="n">
-        <v>657.1709884387391</v>
+        <v>869.6220973048789</v>
       </c>
       <c r="U16" t="n">
-        <v>501.6518772694913</v>
+        <v>647.6048714809806</v>
       </c>
       <c r="V16" t="n">
-        <v>501.6518772694913</v>
+        <v>425.5876456570822</v>
       </c>
       <c r="W16" t="n">
-        <v>501.6518772694913</v>
+        <v>372.128225284967</v>
       </c>
       <c r="X16" t="n">
-        <v>501.6518772694913</v>
+        <v>372.128225284967</v>
       </c>
       <c r="Y16" t="n">
-        <v>501.6518772694913</v>
+        <v>372.128225284967</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1161.173984491431</v>
+        <v>1539.184165319328</v>
       </c>
       <c r="C17" t="n">
-        <v>991.3750256093838</v>
+        <v>1168.492149482012</v>
       </c>
       <c r="D17" t="n">
-        <v>991.3750256093838</v>
+        <v>808.2853487197913</v>
       </c>
       <c r="E17" t="n">
-        <v>604.3871107050529</v>
+        <v>808.2853487197913</v>
       </c>
       <c r="F17" t="n">
-        <v>604.3871107050529</v>
+        <v>396.877405810154</v>
       </c>
       <c r="G17" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H17" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I17" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J17" t="n">
-        <v>52.80882428576624</v>
+        <v>209.3963446040838</v>
       </c>
       <c r="K17" t="n">
-        <v>76.02940206406089</v>
+        <v>566.3570391656497</v>
       </c>
       <c r="L17" t="n">
-        <v>570.8397864146127</v>
+        <v>1061.167423516202</v>
       </c>
       <c r="M17" t="n">
-        <v>1136.623972616752</v>
+        <v>1626.95160971834</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.045963468527</v>
+        <v>1736.081207195537</v>
       </c>
       <c r="O17" t="n">
-        <v>2178.163934727049</v>
+        <v>2218.199178454059</v>
       </c>
       <c r="P17" t="n">
         <v>2436.358370347215</v>
       </c>
       <c r="Q17" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="R17" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="S17" t="n">
         <v>2475.570947353179</v>
       </c>
       <c r="T17" t="n">
-        <v>2475.570947353179</v>
+        <v>2258.628237555605</v>
       </c>
       <c r="U17" t="n">
-        <v>2221.704224546223</v>
+        <v>2258.628237555605</v>
       </c>
       <c r="V17" t="n">
-        <v>1889.852485634587</v>
+        <v>1926.776498643969</v>
       </c>
       <c r="W17" t="n">
-        <v>1535.781660381501</v>
+        <v>1926.776498643969</v>
       </c>
       <c r="X17" t="n">
-        <v>1161.173984491431</v>
+        <v>1926.776498643969</v>
       </c>
       <c r="Y17" t="n">
-        <v>1161.173984491431</v>
+        <v>1926.776498643969</v>
       </c>
     </row>
     <row r="18">
@@ -5591,34 +5591,34 @@
         <v>105.3647029916147</v>
       </c>
       <c r="I18" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J18" t="n">
-        <v>52.80882428576624</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K18" t="n">
-        <v>79.82217335461942</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L18" t="n">
-        <v>543.1266519827402</v>
+        <v>916.4645595624562</v>
       </c>
       <c r="M18" t="n">
-        <v>1136.581319955988</v>
+        <v>1030.429293898703</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.863160779542</v>
+        <v>1654.989673057157</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.585871242146</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P18" t="n">
-        <v>2640.441214288312</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q18" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="R18" t="n">
-        <v>2607.583639997925</v>
+        <v>2607.583639997924</v>
       </c>
       <c r="S18" t="n">
         <v>2455.701176195684</v>
@@ -5630,7 +5630,7 @@
         <v>2032.531424582117</v>
       </c>
       <c r="V18" t="n">
-        <v>1798.280181107718</v>
+        <v>1798.280181107717</v>
       </c>
       <c r="W18" t="n">
         <v>1545.765689441051</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.80882428576624</v>
+        <v>673.6583549929845</v>
       </c>
       <c r="C19" t="n">
-        <v>52.80882428576624</v>
+        <v>504.6315338503559</v>
       </c>
       <c r="D19" t="n">
-        <v>52.80882428576624</v>
+        <v>504.6315338503559</v>
       </c>
       <c r="E19" t="n">
-        <v>52.80882428576624</v>
+        <v>356.1723175137911</v>
       </c>
       <c r="F19" t="n">
-        <v>52.80882428576624</v>
+        <v>208.5369423523724</v>
       </c>
       <c r="G19" t="n">
-        <v>52.80882428576624</v>
+        <v>208.5369423523724</v>
       </c>
       <c r="H19" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I19" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J19" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K19" t="n">
         <v>134.7326120627859</v>
@@ -5697,28 +5697,28 @@
         <v>914.4132742631509</v>
       </c>
       <c r="R19" t="n">
-        <v>914.4132742631509</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="S19" t="n">
-        <v>914.4132742631509</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="T19" t="n">
-        <v>914.4132742631509</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="U19" t="n">
-        <v>914.4132742631509</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="V19" t="n">
-        <v>791.1740876064663</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="W19" t="n">
-        <v>502.191686710087</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="X19" t="n">
-        <v>273.7670807178554</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.80882428576624</v>
+        <v>673.6583549929845</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1463.172366882075</v>
+        <v>2455.882735119091</v>
       </c>
       <c r="C20" t="n">
-        <v>1463.172366882075</v>
+        <v>2085.190719281775</v>
       </c>
       <c r="D20" t="n">
-        <v>1102.965566119854</v>
+        <v>1724.983918519554</v>
       </c>
       <c r="E20" t="n">
-        <v>926.5880607055861</v>
+        <v>1337.996003615223</v>
       </c>
       <c r="F20" t="n">
         <v>926.5880607055861</v>
@@ -5749,55 +5749,55 @@
         <v>187.2321456211013</v>
       </c>
       <c r="I20" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J20" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K20" t="n">
-        <v>76.02940206406089</v>
+        <v>76.02940206406086</v>
       </c>
       <c r="L20" t="n">
-        <v>570.8397864146127</v>
+        <v>454.4964809271138</v>
       </c>
       <c r="M20" t="n">
-        <v>1136.623972616752</v>
+        <v>1020.280667129253</v>
       </c>
       <c r="N20" t="n">
-        <v>1696.045963468527</v>
+        <v>1579.702657981028</v>
       </c>
       <c r="O20" t="n">
-        <v>2178.163934727049</v>
+        <v>2061.82062923955</v>
       </c>
       <c r="P20" t="n">
         <v>2436.358370347215</v>
       </c>
       <c r="Q20" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="R20" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="S20" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.498504490738</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.631781683781</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="V20" t="n">
-        <v>1837.780042772145</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="W20" t="n">
-        <v>1837.780042772145</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="X20" t="n">
-        <v>1463.172366882075</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="Y20" t="n">
-        <v>1463.172366882075</v>
+        <v>2640.441214288311</v>
       </c>
     </row>
     <row r="21">
@@ -5813,10 +5813,10 @@
         <v>793.7146888705354</v>
       </c>
       <c r="D21" t="n">
-        <v>646.1263822294793</v>
+        <v>646.1263822294792</v>
       </c>
       <c r="E21" t="n">
-        <v>488.516853232334</v>
+        <v>488.5168532323339</v>
       </c>
       <c r="F21" t="n">
         <v>343.5610632489509</v>
@@ -5828,34 +5828,34 @@
         <v>105.3647029916147</v>
       </c>
       <c r="I21" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J21" t="n">
         <v>153.8533238373313</v>
       </c>
       <c r="K21" t="n">
-        <v>353.3644506439028</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L21" t="n">
-        <v>816.6689292720235</v>
+        <v>916.4645595624562</v>
       </c>
       <c r="M21" t="n">
-        <v>1410.123597245271</v>
+        <v>1509.919227535703</v>
       </c>
       <c r="N21" t="n">
-        <v>1541.153067779601</v>
+        <v>1748.863160779542</v>
       </c>
       <c r="O21" t="n">
-        <v>2044.875778242205</v>
+        <v>2252.585871242145</v>
       </c>
       <c r="P21" t="n">
-        <v>2432.731121288371</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="Q21" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="R21" t="n">
-        <v>2607.583639997925</v>
+        <v>2607.583639997924</v>
       </c>
       <c r="S21" t="n">
         <v>2455.701176195684</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>693.4550178310618</v>
+        <v>119.5943921341906</v>
       </c>
       <c r="C22" t="n">
-        <v>524.4281966884332</v>
+        <v>119.5943921341906</v>
       </c>
       <c r="D22" t="n">
-        <v>373.917523441444</v>
+        <v>119.5943921341906</v>
       </c>
       <c r="E22" t="n">
-        <v>225.4583071048791</v>
+        <v>119.5943921341906</v>
       </c>
       <c r="F22" t="n">
-        <v>77.82293194346045</v>
+        <v>119.5943921341906</v>
       </c>
       <c r="G22" t="n">
-        <v>77.82293194346045</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H22" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I22" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J22" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K22" t="n">
         <v>134.7326120627859</v>
@@ -5934,28 +5934,28 @@
         <v>914.4132742631509</v>
       </c>
       <c r="R22" t="n">
-        <v>914.4132742631509</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="S22" t="n">
-        <v>914.4132742631509</v>
+        <v>567.5686482687187</v>
       </c>
       <c r="T22" t="n">
-        <v>914.4132742631509</v>
+        <v>340.5526485662797</v>
       </c>
       <c r="U22" t="n">
-        <v>914.4132742631509</v>
+        <v>340.5526485662797</v>
       </c>
       <c r="V22" t="n">
-        <v>914.4132742631509</v>
+        <v>340.5526485662797</v>
       </c>
       <c r="W22" t="n">
-        <v>914.4132742631509</v>
+        <v>340.5526485662797</v>
       </c>
       <c r="X22" t="n">
-        <v>914.4132742631509</v>
+        <v>340.5526485662797</v>
       </c>
       <c r="Y22" t="n">
-        <v>693.4550178310618</v>
+        <v>119.5943921341906</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.471498879425</v>
+        <v>1447.18704100322</v>
       </c>
       <c r="C23" t="n">
-        <v>1563.779483042109</v>
+        <v>1447.18704100322</v>
       </c>
       <c r="D23" t="n">
-        <v>1203.572682279888</v>
+        <v>1447.18704100322</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.572682279888</v>
+        <v>1060.199126098889</v>
       </c>
       <c r="F23" t="n">
-        <v>792.164739370251</v>
+        <v>926.5880607055861</v>
       </c>
       <c r="G23" t="n">
-        <v>375.0097742862995</v>
+        <v>509.4330956216346</v>
       </c>
       <c r="H23" t="n">
-        <v>52.80882428576624</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="I23" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J23" t="n">
-        <v>209.3963446040838</v>
+        <v>65.54453609921649</v>
       </c>
       <c r="K23" t="n">
-        <v>232.6169223823784</v>
+        <v>422.5052306607824</v>
       </c>
       <c r="L23" t="n">
-        <v>727.4273067329302</v>
+        <v>917.3156150113342</v>
       </c>
       <c r="M23" t="n">
-        <v>1293.211492935069</v>
+        <v>1020.280667129253</v>
       </c>
       <c r="N23" t="n">
-        <v>1852.633483786844</v>
+        <v>1579.702657981028</v>
       </c>
       <c r="O23" t="n">
-        <v>2334.751455045367</v>
+        <v>2061.82062923955</v>
       </c>
       <c r="P23" t="n">
         <v>2436.358370347215</v>
       </c>
       <c r="Q23" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="R23" t="n">
-        <v>2615.896128325986</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="S23" t="n">
-        <v>2615.896128325986</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="T23" t="n">
-        <v>2615.896128325986</v>
+        <v>2423.498504490737</v>
       </c>
       <c r="U23" t="n">
-        <v>2615.896128325986</v>
+        <v>2169.63178168378</v>
       </c>
       <c r="V23" t="n">
-        <v>2615.896128325986</v>
+        <v>1837.780042772145</v>
       </c>
       <c r="W23" t="n">
-        <v>2261.8253030729</v>
+        <v>1837.780042772145</v>
       </c>
       <c r="X23" t="n">
-        <v>2261.8253030729</v>
+        <v>1837.780042772145</v>
       </c>
       <c r="Y23" t="n">
-        <v>1934.471498879425</v>
+        <v>1447.18704100322</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.4678039487185</v>
+        <v>966.467803948718</v>
       </c>
       <c r="C24" t="n">
-        <v>793.7146888705355</v>
+        <v>793.714688870535</v>
       </c>
       <c r="D24" t="n">
-        <v>646.1263822294793</v>
+        <v>646.1263822294788</v>
       </c>
       <c r="E24" t="n">
-        <v>488.5168532323339</v>
+        <v>488.5168532323335</v>
       </c>
       <c r="F24" t="n">
-        <v>343.5610632489509</v>
+        <v>343.5610632489504</v>
       </c>
       <c r="G24" t="n">
         <v>207.1752554716954</v>
@@ -6065,19 +6065,19 @@
         <v>105.3647029916147</v>
       </c>
       <c r="I24" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J24" t="n">
-        <v>153.8533238373313</v>
+        <v>54.05769354689818</v>
       </c>
       <c r="K24" t="n">
-        <v>453.1600809343355</v>
+        <v>353.3644506439023</v>
       </c>
       <c r="L24" t="n">
-        <v>916.4645595624563</v>
+        <v>816.6689292720231</v>
       </c>
       <c r="M24" t="n">
-        <v>1410.123597245271</v>
+        <v>1410.12359724527</v>
       </c>
       <c r="N24" t="n">
         <v>1541.153067779601</v>
@@ -6086,34 +6086,34 @@
         <v>2044.875778242205</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.731121288371</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q24" t="n">
-        <v>2640.441214288312</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="R24" t="n">
-        <v>2607.583639997925</v>
+        <v>2607.583639997924</v>
       </c>
       <c r="S24" t="n">
-        <v>2455.701176195685</v>
+        <v>2455.701176195684</v>
       </c>
       <c r="T24" t="n">
         <v>2259.391328284662</v>
       </c>
       <c r="U24" t="n">
-        <v>2032.531424582117</v>
+        <v>2032.531424582116</v>
       </c>
       <c r="V24" t="n">
-        <v>1798.280181107718</v>
+        <v>1798.280181107717</v>
       </c>
       <c r="W24" t="n">
-        <v>1545.765689441051</v>
+        <v>1545.76568944105</v>
       </c>
       <c r="X24" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y24" t="n">
-        <v>1133.510355070279</v>
+        <v>1133.510355070278</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>182.6217562444675</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="C25" t="n">
-        <v>182.6217562444675</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="D25" t="n">
-        <v>182.6217562444675</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="E25" t="n">
-        <v>182.6217562444675</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="F25" t="n">
-        <v>182.6217562444675</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="G25" t="n">
-        <v>182.6217562444675</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H25" t="n">
-        <v>182.6217562444675</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I25" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J25" t="n">
-        <v>52.80882428576624</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K25" t="n">
         <v>134.7326120627859</v>
@@ -6171,28 +6171,28 @@
         <v>914.4132742631509</v>
       </c>
       <c r="R25" t="n">
-        <v>777.3954668404533</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="S25" t="n">
-        <v>777.3954668404533</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="T25" t="n">
-        <v>777.3954668404533</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="U25" t="n">
-        <v>488.5000287874045</v>
+        <v>913.3897414601447</v>
       </c>
       <c r="V25" t="n">
-        <v>488.5000287874045</v>
+        <v>913.3897414601447</v>
       </c>
       <c r="W25" t="n">
-        <v>488.5000287874045</v>
+        <v>624.4073405637654</v>
       </c>
       <c r="X25" t="n">
-        <v>260.0754227951729</v>
+        <v>624.4073405637654</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.6217562444675</v>
+        <v>403.4490841316763</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1724.983918519554</v>
+        <v>1673.782776372138</v>
       </c>
       <c r="C26" t="n">
-        <v>1724.983918519554</v>
+        <v>1673.782776372138</v>
       </c>
       <c r="D26" t="n">
-        <v>1724.983918519554</v>
+        <v>1313.575975609917</v>
       </c>
       <c r="E26" t="n">
-        <v>1337.996003615223</v>
+        <v>926.5880607055861</v>
       </c>
       <c r="F26" t="n">
         <v>926.5880607055861</v>
@@ -6232,46 +6232,46 @@
         <v>566.3570391656497</v>
       </c>
       <c r="L26" t="n">
-        <v>1061.167423516202</v>
+        <v>631.1434370150578</v>
       </c>
       <c r="M26" t="n">
-        <v>1616.435377698472</v>
+        <v>1196.927623217197</v>
       </c>
       <c r="N26" t="n">
-        <v>2175.857368550247</v>
+        <v>1756.349614068972</v>
       </c>
       <c r="O26" t="n">
-        <v>2265.903473180647</v>
+        <v>2238.467585327494</v>
       </c>
       <c r="P26" t="n">
-        <v>2640.441214288311</v>
+        <v>2436.358370347215</v>
       </c>
       <c r="Q26" t="n">
         <v>2640.441214288311</v>
       </c>
       <c r="R26" t="n">
-        <v>2640.441214288311</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="S26" t="n">
-        <v>2475.570947353179</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="T26" t="n">
-        <v>2258.628237555605</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="U26" t="n">
-        <v>2258.628237555605</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="V26" t="n">
-        <v>2258.628237555605</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="W26" t="n">
-        <v>2258.628237555605</v>
+        <v>2451.968111465704</v>
       </c>
       <c r="X26" t="n">
-        <v>2112.576251844196</v>
+        <v>2451.968111465704</v>
       </c>
       <c r="Y26" t="n">
-        <v>2112.576251844196</v>
+        <v>2061.375109696779</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.467803948718</v>
+        <v>966.4678039487183</v>
       </c>
       <c r="C27" t="n">
-        <v>793.714688870535</v>
+        <v>793.7146888705354</v>
       </c>
       <c r="D27" t="n">
-        <v>646.1263822294788</v>
+        <v>646.1263822294793</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5168532323335</v>
+        <v>488.516853232334</v>
       </c>
       <c r="F27" t="n">
-        <v>343.5610632489504</v>
+        <v>343.5610632489509</v>
       </c>
       <c r="G27" t="n">
-        <v>207.1752554716954</v>
+        <v>207.1752554716957</v>
       </c>
       <c r="H27" t="n">
         <v>105.3647029916147</v>
@@ -6308,16 +6308,16 @@
         <v>52.80882428576622</v>
       </c>
       <c r="K27" t="n">
-        <v>352.1155813827704</v>
+        <v>79.82217335461941</v>
       </c>
       <c r="L27" t="n">
-        <v>815.4200600108911</v>
+        <v>530.8481136478412</v>
       </c>
       <c r="M27" t="n">
-        <v>1408.874727984138</v>
+        <v>1124.302781621088</v>
       </c>
       <c r="N27" t="n">
-        <v>2033.435107142592</v>
+        <v>1748.863160779542</v>
       </c>
       <c r="O27" t="n">
         <v>2252.585871242145</v>
@@ -6338,19 +6338,19 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U27" t="n">
-        <v>2032.531424582116</v>
+        <v>2032.531424582117</v>
       </c>
       <c r="V27" t="n">
         <v>1798.280181107717</v>
       </c>
       <c r="W27" t="n">
-        <v>1545.76568944105</v>
+        <v>1545.765689441051</v>
       </c>
       <c r="X27" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y27" t="n">
-        <v>1133.510355070278</v>
+        <v>1133.510355070279</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.2680406223311</v>
+        <v>372.3463186753841</v>
       </c>
       <c r="C28" t="n">
-        <v>201.2680406223311</v>
+        <v>203.3194975327555</v>
       </c>
       <c r="D28" t="n">
-        <v>201.2680406223311</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="E28" t="n">
         <v>52.80882428576622</v>
@@ -6405,31 +6405,31 @@
         <v>914.4132742631509</v>
       </c>
       <c r="Q28" t="n">
-        <v>904.8471573053923</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="R28" t="n">
-        <v>904.8471573053923</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="S28" t="n">
-        <v>695.0203387336577</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="T28" t="n">
-        <v>695.0203387336577</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="U28" t="n">
-        <v>406.1249006806088</v>
+        <v>625.5178362101021</v>
       </c>
       <c r="V28" t="n">
-        <v>406.1249006806088</v>
+        <v>372.3463186753841</v>
       </c>
       <c r="W28" t="n">
-        <v>406.1249006806088</v>
+        <v>372.3463186753841</v>
       </c>
       <c r="X28" t="n">
-        <v>201.2680406223311</v>
+        <v>372.3463186753841</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.2680406223311</v>
+        <v>372.3463186753841</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1291.242344144085</v>
+        <v>1737.575940326016</v>
       </c>
       <c r="C29" t="n">
-        <v>920.5503283067693</v>
+        <v>1737.575940326016</v>
       </c>
       <c r="D29" t="n">
-        <v>560.3435275445487</v>
+        <v>1377.369139563795</v>
       </c>
       <c r="E29" t="n">
-        <v>560.3435275445487</v>
+        <v>990.3812246594644</v>
       </c>
       <c r="F29" t="n">
-        <v>187.2321456211013</v>
+        <v>792.164739370251</v>
       </c>
       <c r="G29" t="n">
-        <v>187.2321456211013</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="H29" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I29" t="n">
         <v>52.80882428576622</v>
       </c>
       <c r="J29" t="n">
-        <v>52.80882428576622</v>
+        <v>209.3963446040838</v>
       </c>
       <c r="K29" t="n">
-        <v>409.7695188473321</v>
+        <v>351.7579632046847</v>
       </c>
       <c r="L29" t="n">
-        <v>904.5799031978839</v>
+        <v>846.5683475552365</v>
       </c>
       <c r="M29" t="n">
-        <v>1470.364089400023</v>
+        <v>1412.352533757376</v>
       </c>
       <c r="N29" t="n">
-        <v>2029.786080251798</v>
+        <v>1971.774524609151</v>
       </c>
       <c r="O29" t="n">
-        <v>2119.832184882198</v>
+        <v>2061.82062923955</v>
       </c>
       <c r="P29" t="n">
-        <v>2494.369925989862</v>
+        <v>2436.358370347215</v>
       </c>
       <c r="Q29" t="n">
         <v>2640.441214288311</v>
@@ -6499,16 +6499,16 @@
         <v>2423.498504490737</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.498504490737</v>
+        <v>2091.646765579101</v>
       </c>
       <c r="W29" t="n">
-        <v>2069.427679237652</v>
+        <v>1737.575940326016</v>
       </c>
       <c r="X29" t="n">
-        <v>2069.427679237652</v>
+        <v>1737.575940326016</v>
       </c>
       <c r="Y29" t="n">
-        <v>1678.834677468727</v>
+        <v>1737.575940326016</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.4678039487183</v>
+        <v>966.467803948718</v>
       </c>
       <c r="C30" t="n">
-        <v>793.7146888705354</v>
+        <v>793.714688870535</v>
       </c>
       <c r="D30" t="n">
-        <v>646.1263822294793</v>
+        <v>646.1263822294788</v>
       </c>
       <c r="E30" t="n">
-        <v>488.516853232334</v>
+        <v>488.5168532323335</v>
       </c>
       <c r="F30" t="n">
-        <v>343.5610632489509</v>
+        <v>343.5610632489504</v>
       </c>
       <c r="G30" t="n">
-        <v>207.1752554716957</v>
+        <v>207.1752554716954</v>
       </c>
       <c r="H30" t="n">
         <v>105.3647029916147</v>
@@ -6542,25 +6542,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J30" t="n">
-        <v>54.05769354689818</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K30" t="n">
-        <v>353.3644506439023</v>
+        <v>79.82217335461941</v>
       </c>
       <c r="L30" t="n">
-        <v>816.6689292720231</v>
+        <v>530.8481136478412</v>
       </c>
       <c r="M30" t="n">
-        <v>1410.12359724527</v>
+        <v>1124.302781621088</v>
       </c>
       <c r="N30" t="n">
-        <v>1541.153067779601</v>
+        <v>1748.863160779542</v>
       </c>
       <c r="O30" t="n">
-        <v>2044.875778242205</v>
+        <v>2252.585871242145</v>
       </c>
       <c r="P30" t="n">
-        <v>2432.73112128837</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="Q30" t="n">
         <v>2640.441214288311</v>
@@ -6575,19 +6575,19 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U30" t="n">
-        <v>2032.531424582117</v>
+        <v>2032.531424582116</v>
       </c>
       <c r="V30" t="n">
         <v>1798.280181107717</v>
       </c>
       <c r="W30" t="n">
-        <v>1545.765689441051</v>
+        <v>1545.76568944105</v>
       </c>
       <c r="X30" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y30" t="n">
-        <v>1133.510355070279</v>
+        <v>1133.510355070278</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>337.044274878871</v>
+        <v>351.7787138693203</v>
       </c>
       <c r="C31" t="n">
-        <v>337.044274878871</v>
+        <v>351.7787138693203</v>
       </c>
       <c r="D31" t="n">
-        <v>337.044274878871</v>
+        <v>201.2680406223311</v>
       </c>
       <c r="E31" t="n">
-        <v>337.044274878871</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="F31" t="n">
-        <v>337.044274878871</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="G31" t="n">
-        <v>208.5369423523724</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H31" t="n">
         <v>52.80882428576622</v>
@@ -6642,31 +6642,31 @@
         <v>914.4132742631509</v>
       </c>
       <c r="Q31" t="n">
-        <v>904.8471573053923</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="R31" t="n">
-        <v>767.8293498826947</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="S31" t="n">
-        <v>558.0025313109601</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="T31" t="n">
-        <v>558.0025313109601</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="U31" t="n">
-        <v>558.0025313109601</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="V31" t="n">
-        <v>558.0025313109601</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="W31" t="n">
-        <v>558.0025313109601</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="X31" t="n">
-        <v>558.0025313109601</v>
+        <v>572.7369703014094</v>
       </c>
       <c r="Y31" t="n">
-        <v>337.044274878871</v>
+        <v>351.7787138693203</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.168512979723</v>
+        <v>745.7017901236153</v>
       </c>
       <c r="C32" t="n">
-        <v>1614.168512979723</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="D32" t="n">
-        <v>1253.961712217503</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="E32" t="n">
-        <v>866.9737973131719</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="F32" t="n">
-        <v>866.9737973131719</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="G32" t="n">
-        <v>449.8188322292203</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="H32" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I32" t="n">
         <v>52.80882428576622</v>
       </c>
       <c r="J32" t="n">
-        <v>52.80882428576622</v>
+        <v>209.3963446040838</v>
       </c>
       <c r="K32" t="n">
-        <v>409.7695188473321</v>
+        <v>566.3570391656497</v>
       </c>
       <c r="L32" t="n">
-        <v>904.5799031978839</v>
+        <v>1061.167423516202</v>
       </c>
       <c r="M32" t="n">
-        <v>1470.364089400023</v>
+        <v>1626.95160971834</v>
       </c>
       <c r="N32" t="n">
-        <v>1783.785501922125</v>
+        <v>2186.373600570116</v>
       </c>
       <c r="O32" t="n">
-        <v>2265.903473180647</v>
+        <v>2597.227423114005</v>
       </c>
       <c r="P32" t="n">
         <v>2640.441214288311</v>
@@ -6724,28 +6724,28 @@
         <v>2640.441214288311</v>
       </c>
       <c r="R32" t="n">
-        <v>2640.441214288311</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="S32" t="n">
-        <v>2475.570947353179</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="T32" t="n">
-        <v>2258.628237555605</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="U32" t="n">
-        <v>2004.761514748648</v>
+        <v>2362.029405519028</v>
       </c>
       <c r="V32" t="n">
-        <v>2004.761514748648</v>
+        <v>2030.177666607393</v>
       </c>
       <c r="W32" t="n">
-        <v>2004.761514748648</v>
+        <v>1676.106841354307</v>
       </c>
       <c r="X32" t="n">
-        <v>2004.761514748648</v>
+        <v>1301.499165464237</v>
       </c>
       <c r="Y32" t="n">
-        <v>1614.168512979723</v>
+        <v>1133.294123448257</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.467803948718</v>
+        <v>966.4678039487183</v>
       </c>
       <c r="C33" t="n">
-        <v>793.714688870535</v>
+        <v>793.7146888705354</v>
       </c>
       <c r="D33" t="n">
-        <v>646.1263822294788</v>
+        <v>646.1263822294793</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5168532323335</v>
+        <v>488.516853232334</v>
       </c>
       <c r="F33" t="n">
-        <v>343.5610632489504</v>
+        <v>343.5610632489509</v>
       </c>
       <c r="G33" t="n">
-        <v>207.1752554716954</v>
+        <v>207.1752554716957</v>
       </c>
       <c r="H33" t="n">
         <v>105.3647029916147</v>
@@ -6779,25 +6779,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J33" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K33" t="n">
-        <v>352.1155813827704</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L33" t="n">
-        <v>815.4200600108911</v>
+        <v>916.4645595624562</v>
       </c>
       <c r="M33" t="n">
-        <v>1408.874727984138</v>
+        <v>1509.919227535703</v>
       </c>
       <c r="N33" t="n">
-        <v>2033.435107142592</v>
+        <v>2134.479606694157</v>
       </c>
       <c r="O33" t="n">
-        <v>2537.157817605195</v>
+        <v>2232.68167322944</v>
       </c>
       <c r="P33" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q33" t="n">
         <v>2640.441214288311</v>
@@ -6812,19 +6812,19 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U33" t="n">
-        <v>2032.531424582116</v>
+        <v>2032.531424582117</v>
       </c>
       <c r="V33" t="n">
         <v>1798.280181107717</v>
       </c>
       <c r="W33" t="n">
-        <v>1545.76568944105</v>
+        <v>1545.765689441051</v>
       </c>
       <c r="X33" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y33" t="n">
-        <v>1133.510355070278</v>
+        <v>1133.510355070279</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348.9034157837498</v>
+        <v>377.274483520824</v>
       </c>
       <c r="C34" t="n">
-        <v>348.9034157837498</v>
+        <v>377.274483520824</v>
       </c>
       <c r="D34" t="n">
-        <v>348.9034157837498</v>
+        <v>377.274483520824</v>
       </c>
       <c r="E34" t="n">
-        <v>200.4441994471849</v>
+        <v>377.274483520824</v>
       </c>
       <c r="F34" t="n">
-        <v>52.80882428576622</v>
+        <v>377.274483520824</v>
       </c>
       <c r="G34" t="n">
-        <v>52.80882428576622</v>
+        <v>208.5369423523724</v>
       </c>
       <c r="H34" t="n">
         <v>52.80882428576622</v>
@@ -6885,25 +6885,25 @@
         <v>914.4132742631509</v>
       </c>
       <c r="S34" t="n">
-        <v>704.5864556914163</v>
+        <v>786.1932019007214</v>
       </c>
       <c r="T34" t="n">
-        <v>604.3946794877288</v>
+        <v>559.1772021982824</v>
       </c>
       <c r="U34" t="n">
-        <v>604.3946794877288</v>
+        <v>559.1772021982824</v>
       </c>
       <c r="V34" t="n">
-        <v>348.9034157837498</v>
+        <v>559.1772021982824</v>
       </c>
       <c r="W34" t="n">
-        <v>348.9034157837498</v>
+        <v>559.1772021982824</v>
       </c>
       <c r="X34" t="n">
-        <v>348.9034157837498</v>
+        <v>559.1772021982824</v>
       </c>
       <c r="Y34" t="n">
-        <v>348.9034157837498</v>
+        <v>559.1772021982824</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>879.7106552446326</v>
+        <v>761.9976891906304</v>
       </c>
       <c r="C35" t="n">
-        <v>879.7106552446326</v>
+        <v>761.9976891906304</v>
       </c>
       <c r="D35" t="n">
-        <v>792.164739370251</v>
+        <v>761.9976891906304</v>
       </c>
       <c r="E35" t="n">
-        <v>792.164739370251</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="F35" t="n">
-        <v>792.164739370251</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="G35" t="n">
         <v>375.0097742862995</v>
@@ -6946,10 +6946,10 @@
         <v>904.5799031978839</v>
       </c>
       <c r="M35" t="n">
-        <v>1020.280667129253</v>
+        <v>1412.352533757376</v>
       </c>
       <c r="N35" t="n">
-        <v>1579.702657981028</v>
+        <v>1971.774524609151</v>
       </c>
       <c r="O35" t="n">
         <v>2061.82062923955</v>
@@ -6961,28 +6961,28 @@
         <v>2640.441214288311</v>
       </c>
       <c r="R35" t="n">
-        <v>2640.441214288311</v>
+        <v>2615.896128325985</v>
       </c>
       <c r="S35" t="n">
-        <v>2640.441214288311</v>
+        <v>2451.025861390853</v>
       </c>
       <c r="T35" t="n">
-        <v>2640.441214288311</v>
+        <v>2234.083151593279</v>
       </c>
       <c r="U35" t="n">
-        <v>2386.574491481354</v>
+        <v>1980.216428786322</v>
       </c>
       <c r="V35" t="n">
-        <v>2386.574491481354</v>
+        <v>1648.364689874687</v>
       </c>
       <c r="W35" t="n">
-        <v>2032.503666228269</v>
+        <v>1294.293864621601</v>
       </c>
       <c r="X35" t="n">
-        <v>1657.895990338199</v>
+        <v>1149.590022515272</v>
       </c>
       <c r="Y35" t="n">
-        <v>1267.302988569274</v>
+        <v>1149.590022515272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.4678039487181</v>
+        <v>966.4678039487183</v>
       </c>
       <c r="C36" t="n">
         <v>793.7146888705354</v>
@@ -7001,7 +7001,7 @@
         <v>646.1263822294793</v>
       </c>
       <c r="E36" t="n">
-        <v>488.516853232334</v>
+        <v>488.5168532323339</v>
       </c>
       <c r="F36" t="n">
         <v>343.5610632489509</v>
@@ -7016,25 +7016,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J36" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K36" t="n">
-        <v>352.1155813827704</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L36" t="n">
-        <v>815.4200600108911</v>
+        <v>916.4645595624562</v>
       </c>
       <c r="M36" t="n">
-        <v>929.3847943471384</v>
+        <v>1410.12359724527</v>
       </c>
       <c r="N36" t="n">
-        <v>1553.945173505592</v>
+        <v>1541.153067779601</v>
       </c>
       <c r="O36" t="n">
-        <v>2057.667883968196</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.523227014362</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q36" t="n">
         <v>2640.441214288311</v>
@@ -7049,13 +7049,13 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U36" t="n">
-        <v>2032.531424582116</v>
+        <v>2032.531424582117</v>
       </c>
       <c r="V36" t="n">
         <v>1798.280181107717</v>
       </c>
       <c r="W36" t="n">
-        <v>1545.76568944105</v>
+        <v>1545.765689441051</v>
       </c>
       <c r="X36" t="n">
         <v>1339.238790846628</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>362.9219512819362</v>
+        <v>203.3194975327555</v>
       </c>
       <c r="C37" t="n">
-        <v>362.9219512819362</v>
+        <v>203.3194975327555</v>
       </c>
       <c r="D37" t="n">
-        <v>212.4112780349469</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="E37" t="n">
-        <v>212.4112780349469</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="F37" t="n">
-        <v>212.4112780349469</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="G37" t="n">
-        <v>212.4112780349469</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H37" t="n">
-        <v>212.4112780349469</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I37" t="n">
-        <v>82.59834607624562</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J37" t="n">
         <v>52.80882428576622</v>
@@ -7116,31 +7116,31 @@
         <v>914.4132742631509</v>
       </c>
       <c r="Q37" t="n">
-        <v>904.8471573053923</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="R37" t="n">
-        <v>767.8293498826947</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="S37" t="n">
-        <v>558.0025313109601</v>
+        <v>606.180472642303</v>
       </c>
       <c r="T37" t="n">
-        <v>558.0025313109601</v>
+        <v>606.180472642303</v>
       </c>
       <c r="U37" t="n">
-        <v>558.0025313109601</v>
+        <v>606.180472642303</v>
       </c>
       <c r="V37" t="n">
-        <v>558.0025313109601</v>
+        <v>606.180472642303</v>
       </c>
       <c r="W37" t="n">
-        <v>362.9219512819362</v>
+        <v>606.180472642303</v>
       </c>
       <c r="X37" t="n">
-        <v>362.9219512819362</v>
+        <v>606.180472642303</v>
       </c>
       <c r="Y37" t="n">
-        <v>362.9219512819362</v>
+        <v>385.2222162102139</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1716.526820034606</v>
+        <v>856.9517042740486</v>
       </c>
       <c r="C38" t="n">
-        <v>1345.83480419729</v>
+        <v>856.9517042740486</v>
       </c>
       <c r="D38" t="n">
-        <v>985.6280034350693</v>
+        <v>856.9517042740486</v>
       </c>
       <c r="E38" t="n">
-        <v>598.6400885307386</v>
+        <v>469.9637893697177</v>
       </c>
       <c r="F38" t="n">
-        <v>187.2321456211013</v>
+        <v>469.9637893697177</v>
       </c>
       <c r="G38" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H38" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I38" t="n">
         <v>52.80882428576622</v>
       </c>
       <c r="J38" t="n">
-        <v>65.54453609921649</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K38" t="n">
-        <v>422.5052306607824</v>
+        <v>409.7695188473321</v>
       </c>
       <c r="L38" t="n">
-        <v>917.3156150113342</v>
+        <v>846.5683475552365</v>
       </c>
       <c r="M38" t="n">
-        <v>1020.280667129253</v>
+        <v>1412.352533757376</v>
       </c>
       <c r="N38" t="n">
-        <v>1579.702657981028</v>
+        <v>1971.774524609151</v>
       </c>
       <c r="O38" t="n">
         <v>2061.82062923955</v>
@@ -7207,19 +7207,19 @@
         <v>2640.441214288311</v>
       </c>
       <c r="U38" t="n">
-        <v>2435.970892270883</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="V38" t="n">
-        <v>2104.119153359247</v>
+        <v>2363.815540510771</v>
       </c>
       <c r="W38" t="n">
-        <v>2104.119153359247</v>
+        <v>2009.744715257685</v>
       </c>
       <c r="X38" t="n">
-        <v>2104.119153359247</v>
+        <v>1635.137039367615</v>
       </c>
       <c r="Y38" t="n">
-        <v>2104.119153359247</v>
+        <v>1244.54403759869</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J39" t="n">
-        <v>153.8533238373313</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K39" t="n">
-        <v>453.1600809343354</v>
+        <v>352.1155813827704</v>
       </c>
       <c r="L39" t="n">
-        <v>858.7373802395206</v>
+        <v>815.4200600108911</v>
       </c>
       <c r="M39" t="n">
-        <v>1452.192048212768</v>
+        <v>929.3847943471384</v>
       </c>
       <c r="N39" t="n">
-        <v>2076.752427371221</v>
+        <v>1553.945173505592</v>
       </c>
       <c r="O39" t="n">
-        <v>2580.475137833825</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P39" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q39" t="n">
         <v>2640.441214288311</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.6409569522013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="C40" t="n">
-        <v>517.6409569522013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="D40" t="n">
-        <v>517.6409569522013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="E40" t="n">
-        <v>369.1817406156365</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="F40" t="n">
-        <v>221.5463654542178</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="G40" t="n">
         <v>52.80882428576622</v>
@@ -7359,25 +7359,25 @@
         <v>914.4132742631509</v>
       </c>
       <c r="S40" t="n">
-        <v>806.5363950052501</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="T40" t="n">
-        <v>806.5363950052501</v>
+        <v>562.6625187709042</v>
       </c>
       <c r="U40" t="n">
-        <v>517.6409569522013</v>
+        <v>273.7670807178553</v>
       </c>
       <c r="V40" t="n">
-        <v>517.6409569522013</v>
+        <v>273.7670807178553</v>
       </c>
       <c r="W40" t="n">
-        <v>517.6409569522013</v>
+        <v>273.7670807178553</v>
       </c>
       <c r="X40" t="n">
-        <v>517.6409569522013</v>
+        <v>273.7670807178553</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.6409569522013</v>
+        <v>52.80882428576622</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="C41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="D41" t="n">
-        <v>657.1709884387392</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="E41" t="n">
-        <v>435.1537626148408</v>
+        <v>596.0415372683846</v>
       </c>
       <c r="F41" t="n">
-        <v>213.1365367909425</v>
+        <v>596.0415372683846</v>
       </c>
       <c r="G41" t="n">
-        <v>17.58376428525275</v>
+        <v>374.0243114444862</v>
       </c>
       <c r="H41" t="n">
-        <v>17.58376428525275</v>
+        <v>152.0070856205878</v>
       </c>
       <c r="I41" t="n">
         <v>17.58376428525275</v>
@@ -7414,49 +7414,49 @@
         <v>174.1712846035703</v>
       </c>
       <c r="K41" t="n">
-        <v>391.7703676335731</v>
+        <v>197.391862381865</v>
       </c>
       <c r="L41" t="n">
-        <v>456.5567654829812</v>
+        <v>262.178260231273</v>
       </c>
       <c r="M41" t="n">
-        <v>559.5218176008998</v>
+        <v>432.7158770396393</v>
       </c>
       <c r="N41" t="n">
-        <v>668.6514150780962</v>
+        <v>541.8454745168357</v>
       </c>
       <c r="O41" t="n">
-        <v>835.9744230883317</v>
+        <v>631.8915791472351</v>
       </c>
       <c r="P41" t="n">
-        <v>879.1882142626375</v>
+        <v>675.1053703215409</v>
       </c>
       <c r="Q41" t="n">
         <v>879.1882142626375</v>
       </c>
       <c r="R41" t="n">
-        <v>879.1882142626375</v>
+        <v>854.6431283003114</v>
       </c>
       <c r="S41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="T41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="U41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="V41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="W41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="X41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
       <c r="Y41" t="n">
-        <v>879.1882142626375</v>
+        <v>689.7728613651789</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>229.4253268384913</v>
+        <v>560.2631993388367</v>
       </c>
       <c r="C42" t="n">
-        <v>175.1932932823981</v>
+        <v>387.5100842606539</v>
       </c>
       <c r="D42" t="n">
-        <v>175.1932932823981</v>
+        <v>239.9217776195977</v>
       </c>
       <c r="E42" t="n">
-        <v>17.58376428525275</v>
+        <v>82.31224862245242</v>
       </c>
       <c r="F42" t="n">
-        <v>17.58376428525275</v>
+        <v>82.31224862245242</v>
       </c>
       <c r="G42" t="n">
         <v>17.58376428525275</v>
@@ -7493,22 +7493,22 @@
         <v>118.6282638368178</v>
       </c>
       <c r="K42" t="n">
-        <v>336.2273468668207</v>
+        <v>145.641612905671</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0258664022901</v>
+        <v>227.1288720093502</v>
       </c>
       <c r="M42" t="n">
-        <v>589.9906007385374</v>
+        <v>341.0936063455975</v>
       </c>
       <c r="N42" t="n">
-        <v>721.0200712728681</v>
+        <v>513.3099782729271</v>
       </c>
       <c r="O42" t="n">
-        <v>819.2221378081513</v>
+        <v>611.5120448082102</v>
       </c>
       <c r="P42" t="n">
-        <v>879.1882142626375</v>
+        <v>671.4781212626965</v>
       </c>
       <c r="Q42" t="n">
         <v>879.1882142626375</v>
@@ -7517,25 +7517,25 @@
         <v>879.1882142626375</v>
       </c>
       <c r="S42" t="n">
-        <v>879.1882142626375</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="T42" t="n">
-        <v>879.1882142626375</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="U42" t="n">
-        <v>657.1709884387392</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="V42" t="n">
-        <v>435.1537626148408</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="W42" t="n">
-        <v>435.1537626148408</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="X42" t="n">
-        <v>435.1537626148408</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="Y42" t="n">
-        <v>229.4253268384913</v>
+        <v>727.3057504603971</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>168.094437532242</v>
+        <v>321.7710986884238</v>
       </c>
       <c r="C43" t="n">
-        <v>168.094437532242</v>
+        <v>321.7710986884238</v>
       </c>
       <c r="D43" t="n">
-        <v>17.58376428525275</v>
+        <v>321.7710986884238</v>
       </c>
       <c r="E43" t="n">
-        <v>17.58376428525275</v>
+        <v>173.311882351859</v>
       </c>
       <c r="F43" t="n">
-        <v>17.58376428525275</v>
+        <v>173.311882351859</v>
       </c>
       <c r="G43" t="n">
-        <v>17.58376428525275</v>
+        <v>173.311882351859</v>
       </c>
       <c r="H43" t="n">
         <v>17.58376428525275</v>
@@ -7593,28 +7593,28 @@
         <v>879.1882142626375</v>
       </c>
       <c r="R43" t="n">
-        <v>821.9557077517734</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="S43" t="n">
-        <v>612.1288891800388</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="T43" t="n">
-        <v>390.1116633561404</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="U43" t="n">
-        <v>168.094437532242</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="V43" t="n">
-        <v>168.094437532242</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="W43" t="n">
-        <v>168.094437532242</v>
+        <v>657.1709884387392</v>
       </c>
       <c r="X43" t="n">
-        <v>168.094437532242</v>
+        <v>435.1537626148408</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.094437532242</v>
+        <v>321.7710986884238</v>
       </c>
     </row>
     <row r="44">
@@ -7627,10 +7627,10 @@
         <v>461.6182159330495</v>
       </c>
       <c r="C44" t="n">
-        <v>461.6182159330495</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="D44" t="n">
-        <v>461.6182159330495</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="E44" t="n">
         <v>239.6009901091511</v>
@@ -7648,25 +7648,25 @@
         <v>17.58376428525275</v>
       </c>
       <c r="J44" t="n">
-        <v>174.1712846035703</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="K44" t="n">
-        <v>197.391862381865</v>
+        <v>201.6005549207303</v>
       </c>
       <c r="L44" t="n">
-        <v>262.178260231273</v>
+        <v>419.1996379507331</v>
       </c>
       <c r="M44" t="n">
-        <v>365.1433123491917</v>
+        <v>636.7987209807359</v>
       </c>
       <c r="N44" t="n">
-        <v>541.8454745168357</v>
+        <v>745.9283184579323</v>
       </c>
       <c r="O44" t="n">
-        <v>631.8915791472351</v>
+        <v>835.9744230883317</v>
       </c>
       <c r="P44" t="n">
-        <v>675.1053703215409</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="Q44" t="n">
         <v>879.1882142626375</v>
@@ -7687,13 +7687,13 @@
         <v>879.1882142626375</v>
       </c>
       <c r="W44" t="n">
-        <v>657.1709884387392</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="X44" t="n">
-        <v>657.1709884387392</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="Y44" t="n">
-        <v>461.6182159330495</v>
+        <v>683.6354417569479</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>213.1365367909425</v>
+        <v>363.9533514278145</v>
       </c>
       <c r="C45" t="n">
-        <v>40.38342171275966</v>
+        <v>363.9533514278145</v>
       </c>
       <c r="D45" t="n">
-        <v>40.38342171275966</v>
+        <v>311.5791010596532</v>
       </c>
       <c r="E45" t="n">
-        <v>17.58376428525275</v>
+        <v>153.969572062508</v>
       </c>
       <c r="F45" t="n">
-        <v>17.58376428525275</v>
+        <v>153.969572062508</v>
       </c>
       <c r="G45" t="n">
         <v>17.58376428525275</v>
@@ -7727,25 +7727,25 @@
         <v>17.58376428525275</v>
       </c>
       <c r="J45" t="n">
-        <v>118.6282638368178</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="K45" t="n">
-        <v>145.641612905671</v>
+        <v>186.8285142986699</v>
       </c>
       <c r="L45" t="n">
-        <v>363.2406959356738</v>
+        <v>268.3157734023491</v>
       </c>
       <c r="M45" t="n">
-        <v>477.205430271921</v>
+        <v>382.2805077385964</v>
       </c>
       <c r="N45" t="n">
-        <v>608.2349008062517</v>
+        <v>513.3099782729271</v>
       </c>
       <c r="O45" t="n">
-        <v>819.2221378081513</v>
+        <v>611.5120448082102</v>
       </c>
       <c r="P45" t="n">
-        <v>879.1882142626375</v>
+        <v>671.4781212626965</v>
       </c>
       <c r="Q45" t="n">
         <v>879.1882142626375</v>
@@ -7754,25 +7754,25 @@
         <v>879.1882142626375</v>
       </c>
       <c r="S45" t="n">
-        <v>879.1882142626375</v>
+        <v>727.3057504603971</v>
       </c>
       <c r="T45" t="n">
-        <v>879.1882142626375</v>
+        <v>530.9959025493749</v>
       </c>
       <c r="U45" t="n">
-        <v>657.1709884387392</v>
+        <v>530.9959025493749</v>
       </c>
       <c r="V45" t="n">
-        <v>435.1537626148408</v>
+        <v>530.9959025493749</v>
       </c>
       <c r="W45" t="n">
-        <v>213.1365367909425</v>
+        <v>530.9959025493749</v>
       </c>
       <c r="X45" t="n">
-        <v>213.1365367909425</v>
+        <v>530.9959025493749</v>
       </c>
       <c r="Y45" t="n">
-        <v>213.1365367909425</v>
+        <v>530.9959025493749</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>425.5876456570822</v>
+        <v>186.6105854278814</v>
       </c>
       <c r="C46" t="n">
-        <v>425.5876456570822</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="D46" t="n">
-        <v>425.5876456570822</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="E46" t="n">
-        <v>425.5876456570822</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="F46" t="n">
-        <v>425.5876456570822</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="G46" t="n">
-        <v>256.8501044886306</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H46" t="n">
-        <v>147.3966962439541</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I46" t="n">
         <v>17.58376428525275</v>
@@ -7809,7 +7809,7 @@
         <v>17.58376428525275</v>
       </c>
       <c r="K46" t="n">
-        <v>99.50755206227257</v>
+        <v>99.50755206227244</v>
       </c>
       <c r="L46" t="n">
         <v>260.145410180351</v>
@@ -7818,7 +7818,7 @@
         <v>440.1084080985506</v>
       </c>
       <c r="N46" t="n">
-        <v>620.9335500581743</v>
+        <v>620.9335500581744</v>
       </c>
       <c r="O46" t="n">
         <v>772.61823949979</v>
@@ -7827,31 +7827,31 @@
         <v>879.1882142626375</v>
       </c>
       <c r="Q46" t="n">
-        <v>869.6220973048789</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="R46" t="n">
-        <v>869.6220973048789</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="S46" t="n">
-        <v>869.6220973048789</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="T46" t="n">
-        <v>869.6220973048789</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="U46" t="n">
-        <v>647.6048714809806</v>
+        <v>879.1882142626375</v>
       </c>
       <c r="V46" t="n">
-        <v>647.6048714809806</v>
+        <v>657.1709884387392</v>
       </c>
       <c r="W46" t="n">
-        <v>425.5876456570822</v>
+        <v>435.1537626148408</v>
       </c>
       <c r="X46" t="n">
-        <v>425.5876456570822</v>
+        <v>368.5133041053398</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.5876456570822</v>
+        <v>368.5133041053398</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.69126733621172</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>146.8567187286449</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>109.5651369220267</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>68.25511584893695</v>
       </c>
       <c r="P11" t="n">
-        <v>176.1467594501989</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.66330347711238</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8768,16 +8768,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>29.06952569183824</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>137.4866908346703</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>6.181390927515622</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>41.60293069999898</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.69126733621172</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>18.01532640581328</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>109.5651369220267</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>128.8413923228316</v>
+        <v>68.25511584893695</v>
       </c>
       <c r="P14" t="n">
-        <v>176.1467594501989</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.66330347711238</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>29.06952569183824</v>
+        <v>29.06952569183822</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>192.5108423849996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>73.64795037804936</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>120.6030469643633</v>
       </c>
       <c r="P15" t="n">
-        <v>159.2252591671884</v>
+        <v>40.36236716023825</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.67220449786798</v>
+        <v>8.672204497867966</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.69126733621169</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
         <v>434.3676631324684</v>
@@ -9175,13 +9175,13 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>217.1521661069291</v>
+        <v>176.7125259786359</v>
       </c>
       <c r="Q17" t="n">
         <v>220.8075902863009</v>
@@ -9242,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>486.1135053426505</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
-        <v>409.6168120477987</v>
+        <v>294.6303420704695</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>434.3676631324684</v>
+        <v>316.8491727410554</v>
       </c>
       <c r="M20" t="n">
         <v>467.4940748325458</v>
@@ -9418,7 +9418,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
-        <v>217.1521661069291</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9482,7 +9482,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>174.2401795330488</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>109.0045077873814</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>8.672204497867966</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>30.55562270333317</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L23" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>454.8408013884635</v>
@@ -9655,7 +9655,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
-        <v>58.98295366418441</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
         <v>220.8075902863009</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>30.33100979399171</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9725,7 +9725,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>383.5295993399668</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9880,22 +9880,22 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>456.8716182468202</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>156.2393877226407</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.66330347711235</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9956,10 +9956,10 @@
         <v>29.06952569183822</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>385.6739591155975</v>
+        <v>373.2713951409521</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -9968,7 +9968,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
-        <v>122.1704015800715</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
         <v>331.2012793855346</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>17.69126733621169</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>120.3444856790973</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
@@ -10132,7 +10132,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>162.2100593341315</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,19 +10190,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>30.33100979399171</v>
+        <v>29.06952569183822</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>385.6739591155975</v>
+        <v>373.2713951409521</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>8.672204497867966</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>17.69126733621169</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
         <v>337.1112290740114</v>
@@ -10360,13 +10360,13 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
-        <v>206.3553687322276</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O32" t="n">
-        <v>396.0321885132552</v>
+        <v>324.0481999126164</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>14.66330347711235</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10442,13 +10442,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O33" t="n">
-        <v>409.6168120477987</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>43.75486891780768</v>
+        <v>141.4983551560043</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10594,13 +10594,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M35" t="n">
-        <v>12.86435536712152</v>
+        <v>408.8965438803768</v>
       </c>
       <c r="N35" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O35" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>334.6706564983419</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10673,10 +10673,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>383.5295993399665</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>205.5590603301403</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.55562270333317</v>
+        <v>17.69126733621169</v>
       </c>
       <c r="K38" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L38" t="n">
-        <v>434.3676631324684</v>
+        <v>375.7701321802994</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N38" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O38" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>334.6706564983419</v>
@@ -10901,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>29.06952569183822</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>327.3636769712181</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>396.6954931326563</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11062,25 +11062,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>196.3419244966749</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>68.25511584893701</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>78.05747816145058</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.66330347711235</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11141,16 +11141,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>192.5108423849996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>58.90026306241444</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>41.60293069999889</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>17.69126733621169</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>162.4204170274575</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>154.3562476571664</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>115.7919504162467</v>
       </c>
       <c r="N44" t="n">
-        <v>68.25511584893698</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>14.66330347711235</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,13 +11375,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>29.06952569183822</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>143.6680817621858</v>
       </c>
       <c r="L45" t="n">
-        <v>137.4866908346703</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>113.9244146127438</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.1191652107623</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>147.1880421132832</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>182.2833522106072</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>163.3209821896281</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>24.29963510270289</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>163.2215642657812</v>
       </c>
       <c r="T11" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>31.53100201322755</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23323,10 +23323,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>151.06454556551</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.8900181855765</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>131.5265042687436</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -23357,7 +23357,7 @@
         <v>100.7924469552802</v>
       </c>
       <c r="I12" t="n">
-        <v>25.99028889267695</v>
+        <v>52.03031991878998</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>32.52899854748281</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>150.363639164218</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3467494319119</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.5913046655197</v>
+        <v>4.794251099860276</v>
       </c>
       <c r="V12" t="n">
-        <v>12.11167747399577</v>
+        <v>12.11167747399574</v>
       </c>
       <c r="W12" t="n">
-        <v>30.19229318434068</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -23433,13 +23433,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>29.4916265725746</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R13" t="n">
-        <v>135.6476293484707</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>207.7285503860173</v>
       </c>
       <c r="T13" t="n">
-        <v>4.948786139755214</v>
+        <v>8.709757709665411</v>
       </c>
       <c r="U13" t="n">
         <v>286.0064836725184</v>
@@ -23481,10 +23481,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>136.754276856582</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>163.9193564257357</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>147.1880421132832</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>163.3209821896281</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>187.4968099148815</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>193.1863618674526</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H14" t="n">
-        <v>318.9789405005279</v>
+        <v>120.3579248538339</v>
       </c>
       <c r="I14" t="n">
         <v>133.0790881219817</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.29963510270289</v>
+        <v>24.29963510270288</v>
       </c>
       <c r="S14" t="n">
         <v>163.2215642657812</v>
       </c>
       <c r="T14" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3280555788869</v>
@@ -23560,7 +23560,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>177.2643543505366</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>117.785010853942</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>32.52899854748281</v>
       </c>
       <c r="S15" t="n">
-        <v>150.3636391642181</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.3467494319119</v>
       </c>
       <c r="U15" t="n">
         <v>224.5913046655197</v>
       </c>
       <c r="V15" t="n">
-        <v>114.7213015237835</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -23655,7 +23655,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -23667,13 +23667,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.470455788181056</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>135.6476293484707</v>
@@ -23706,16 +23706,16 @@
         <v>207.7285503860173</v>
       </c>
       <c r="T16" t="n">
-        <v>4.948786139755214</v>
+        <v>224.7458397054146</v>
       </c>
       <c r="U16" t="n">
-        <v>132.0425636149631</v>
+        <v>66.20943010685897</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>33.13929750127977</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>233.1677507190215</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>198.8841263857157</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>72.35551972396809</v>
       </c>
       <c r="H17" t="n">
         <v>318.9789405005279</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23892,22 +23892,22 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.0501657567671</v>
       </c>
       <c r="H19" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>128.5148026391143</v>
@@ -23937,7 +23937,7 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6476293484707</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>207.7285503860173</v>
@@ -23949,16 +23949,16 @@
         <v>286.0064836725184</v>
       </c>
       <c r="V19" t="n">
-        <v>130.9295562768214</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>116.0489331387741</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>201.0035156138669</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>208.5043053951619</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>163.2215642657812</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24129,22 +24129,22 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0501657567671</v>
+        <v>100.932453586827</v>
       </c>
       <c r="H22" t="n">
-        <v>129.4068703048229</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I22" t="n">
         <v>128.5148026391143</v>
@@ -24174,13 +24174,13 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R22" t="n">
-        <v>135.6476293484707</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>224.7458397054146</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.0064836725184</v>
@@ -24208,16 +24208,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>275.0189087411711</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.29963510270288</v>
       </c>
       <c r="S23" t="n">
         <v>163.2215642657812</v>
       </c>
       <c r="T23" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>62.60680559969529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -24378,13 +24378,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>154.1708368859401</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J25" t="n">
         <v>29.4916265725746</v>
@@ -24411,7 +24411,7 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S25" t="n">
         <v>207.7285503860173</v>
@@ -24420,19 +24420,19 @@
         <v>224.7458397054146</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.9931861975422</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>142.0695439825699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,13 +24448,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U26" t="n">
         <v>251.3280555788869</v>
@@ -24505,13 +24505,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>188.2413803088765</v>
       </c>
       <c r="X26" t="n">
-        <v>226.2701332768744</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>9.470455788181056</v>
       </c>
       <c r="R28" t="n">
         <v>135.6476293484707</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T28" t="n">
         <v>224.7458397054146</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>2.296548707568263</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>23.33206847461426</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>37.91359537632798</v>
+        <v>211.0595430442197</v>
       </c>
       <c r="G29" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.9789405005279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>251.3280555788869</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>39.82790655553356</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I31" t="n">
         <v>128.5148026391143</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>9.470455788181056</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T31" t="n">
         <v>224.7458397054146</v>
@@ -24903,7 +24903,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>23.52844835865582</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H32" t="n">
-        <v>59.01812075849011</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>220.1640801554155</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
@@ -25083,16 +25083,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>128.5148026391143</v>
@@ -25125,16 +25125,16 @@
         <v>135.6476293484707</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>80.79067874721207</v>
       </c>
       <c r="T34" t="n">
-        <v>125.555981263764</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0064836725184</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -25159,16 +25159,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>269.9342760389607</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>227.6047954459033</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25332,10 +25332,10 @@
         <v>154.1708368859401</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>29.4916265725746</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>9.470455788181056</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>38.2257061298485</v>
       </c>
       <c r="T37" t="n">
         <v>224.7458397054146</v>
@@ -25374,13 +25374,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>92.96280265868188</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>318.9789405005279</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>214.7732826995982</v>
       </c>
       <c r="U38" t="n">
-        <v>48.90243678163333</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>54.67380448275452</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,13 +25557,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H40" t="n">
         <v>154.1708368859401</v>
@@ -25599,10 +25599,10 @@
         <v>135.6476293484707</v>
       </c>
       <c r="S40" t="n">
-        <v>100.9304399206955</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>224.7458397054146</v>
+        <v>84.24114215410759</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>136.807679188939</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>163.3209821896281</v>
+        <v>290.3240248994611</v>
       </c>
       <c r="F41" t="n">
-        <v>187.4968099148815</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>219.3861706524792</v>
+        <v>193.1863618674526</v>
       </c>
       <c r="H41" t="n">
-        <v>318.9789405005279</v>
+        <v>99.18188693486854</v>
       </c>
       <c r="I41" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>214.7732826995982</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>117.3358707068687</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.0219496994826</v>
+        <v>70.94075020565498</v>
       </c>
       <c r="H42" t="n">
         <v>100.7924469552802</v>
@@ -25757,16 +25757,16 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S42" t="n">
-        <v>150.363639164218</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>194.3467494319119</v>
       </c>
       <c r="U42" t="n">
-        <v>4.794251099860276</v>
+        <v>224.5913046655197</v>
       </c>
       <c r="V42" t="n">
-        <v>12.11167747399574</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -25775,7 +25775,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25791,10 +25791,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -25803,7 +25803,7 @@
         <v>167.0501657567671</v>
       </c>
       <c r="H43" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>128.5148026391143</v>
@@ -25833,28 +25833,28 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R43" t="n">
-        <v>78.98744790271518</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T43" t="n">
-        <v>4.948786139755185</v>
+        <v>224.7458397054146</v>
       </c>
       <c r="U43" t="n">
-        <v>66.20943010685897</v>
+        <v>286.0064836725184</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>66.29552332175615</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>6.34330636664987</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>106.4998365806153</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>163.9193564257357</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>147.1880421132832</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>163.3209821896281</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -25927,13 +25927,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>130.7330634348952</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.089826970603</v>
+        <v>193.0898269706031</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>94.26191571016592</v>
       </c>
       <c r="E45" t="n">
-        <v>133.461772853942</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.0219496994826</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>100.7924469552802</v>
@@ -25994,19 +25994,19 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S45" t="n">
-        <v>150.363639164218</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.3467494319119</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>4.794251099860276</v>
+        <v>224.5913046655197</v>
       </c>
       <c r="V45" t="n">
-        <v>12.11167747399574</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>30.19229318434066</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26037,13 +26037,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H46" t="n">
-        <v>45.81196272371035</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J46" t="n">
         <v>29.4916265725746</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>9.470455788181056</v>
       </c>
       <c r="R46" t="n">
         <v>135.6476293484707</v>
@@ -26079,16 +26079,16 @@
         <v>224.7458397054146</v>
       </c>
       <c r="U46" t="n">
-        <v>66.20943010685897</v>
+        <v>286.0064836725184</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>33.13929750127977</v>
       </c>
       <c r="W46" t="n">
         <v>66.29552332175615</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>160.1663060079032</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>667634.8612906786</v>
+        <v>667634.8612906785</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>667634.8612906785</v>
+        <v>667634.8612906786</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667634.8612906787</v>
+        <v>667634.8612906785</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389931.0965047255</v>
+        <v>389931.0965047254</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>629421.1927606985</v>
       </c>
       <c r="C2" t="n">
-        <v>629421.1927606985</v>
+        <v>629421.1927606984</v>
       </c>
       <c r="D2" t="n">
-        <v>629421.1927606985</v>
+        <v>629421.1927606984</v>
       </c>
       <c r="E2" t="n">
+        <v>285779.416772553</v>
+      </c>
+      <c r="F2" t="n">
         <v>285779.4167725529</v>
       </c>
-      <c r="F2" t="n">
-        <v>285779.4167725528</v>
-      </c>
       <c r="G2" t="n">
-        <v>447343.3990846378</v>
+        <v>447343.3990846379</v>
       </c>
       <c r="H2" t="n">
-        <v>447343.3990846379</v>
+        <v>447343.3990846375</v>
       </c>
       <c r="I2" t="n">
-        <v>447343.3990846378</v>
+        <v>447343.3990846376</v>
       </c>
       <c r="J2" t="n">
-        <v>447343.3990846379</v>
+        <v>447343.3990846376</v>
       </c>
       <c r="K2" t="n">
         <v>447343.3990846378</v>
@@ -26349,7 +26349,7 @@
         <v>447343.3990846378</v>
       </c>
       <c r="N2" t="n">
-        <v>447343.3990846376</v>
+        <v>447343.3990846378</v>
       </c>
       <c r="O2" t="n">
         <v>285779.4167725529</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54774.30493677677</v>
+        <v>54774.30493677659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416705.6607992057</v>
+        <v>416705.6607992056</v>
       </c>
       <c r="C4" t="n">
         <v>416705.6607992057</v>
       </c>
       <c r="D4" t="n">
-        <v>416705.6607992057</v>
+        <v>416705.6607992056</v>
       </c>
       <c r="E4" t="n">
         <v>30592.75017115183</v>
@@ -26484,13 +26484,13 @@
         <v>23511.52391050827</v>
       </c>
       <c r="G5" t="n">
-        <v>50282.56951089852</v>
+        <v>50282.56951089851</v>
       </c>
       <c r="H5" t="n">
-        <v>50282.56951089852</v>
+        <v>50282.56951089851</v>
       </c>
       <c r="I5" t="n">
-        <v>50282.56951089852</v>
+        <v>50282.56951089851</v>
       </c>
       <c r="J5" t="n">
         <v>50282.56951089851</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179087.9319614929</v>
+        <v>179043.856190013</v>
       </c>
       <c r="C6" t="n">
-        <v>179087.9319614929</v>
+        <v>179043.8561900128</v>
       </c>
       <c r="D6" t="n">
-        <v>179087.9319614929</v>
+        <v>179043.8561900129</v>
       </c>
       <c r="E6" t="n">
-        <v>-207934.1568743566</v>
+        <v>-219063.4512260993</v>
       </c>
       <c r="F6" t="n">
-        <v>231675.1426908927</v>
+        <v>220545.8483391502</v>
       </c>
       <c r="G6" t="n">
-        <v>171019.9170704378</v>
+        <v>165102.3640836013</v>
       </c>
       <c r="H6" t="n">
-        <v>291703.1741984472</v>
+        <v>285785.6212116102</v>
       </c>
       <c r="I6" t="n">
-        <v>291703.1741984471</v>
+        <v>285785.6212116103</v>
       </c>
       <c r="J6" t="n">
-        <v>291703.1741984472</v>
+        <v>285785.6212116102</v>
       </c>
       <c r="K6" t="n">
-        <v>291703.1741984471</v>
+        <v>285785.6212116104</v>
       </c>
       <c r="L6" t="n">
-        <v>291703.1741984471</v>
+        <v>285785.6212116104</v>
       </c>
       <c r="M6" t="n">
-        <v>236928.8692616704</v>
+        <v>231011.3162748339</v>
       </c>
       <c r="N6" t="n">
-        <v>291703.174198447</v>
+        <v>285785.6212116104</v>
       </c>
       <c r="O6" t="n">
-        <v>231675.1426908928</v>
+        <v>220545.8483391502</v>
       </c>
       <c r="P6" t="n">
-        <v>231675.1426908929</v>
+        <v>220545.8483391501</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>465.4983052163385</v>
+        <v>465.4983052163386</v>
       </c>
       <c r="F3" t="n">
-        <v>465.4983052163385</v>
+        <v>465.4983052163386</v>
       </c>
       <c r="G3" t="n">
         <v>465.4983052163386</v>
@@ -26804,13 +26804,13 @@
         <v>219.7970535656594</v>
       </c>
       <c r="G4" t="n">
-        <v>660.1103035720779</v>
+        <v>660.1103035720778</v>
       </c>
       <c r="H4" t="n">
-        <v>660.1103035720779</v>
+        <v>660.1103035720778</v>
       </c>
       <c r="I4" t="n">
-        <v>660.1103035720779</v>
+        <v>660.1103035720778</v>
       </c>
       <c r="J4" t="n">
         <v>660.1103035720778</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>465.4983052163385</v>
+        <v>465.4983052163386</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>440.3132500064185</v>
+        <v>440.3132500064184</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>219.7970535656601</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>440.3132500064185</v>
+        <v>440.3132500064184</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.871349970718947</v>
+        <v>1.871349970718948</v>
       </c>
       <c r="H11" t="n">
-        <v>19.16496288762542</v>
+        <v>19.16496288762543</v>
       </c>
       <c r="I11" t="n">
-        <v>72.14521974614229</v>
+        <v>72.1452197461423</v>
       </c>
       <c r="J11" t="n">
         <v>158.8284895773074</v>
@@ -31767,13 +31767,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L11" t="n">
-        <v>295.3130605042305</v>
+        <v>295.3130605042306</v>
       </c>
       <c r="M11" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N11" t="n">
-        <v>333.9096536503088</v>
+        <v>333.9096536503089</v>
       </c>
       <c r="O11" t="n">
         <v>315.3014173789723</v>
@@ -31788,13 +31788,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S11" t="n">
-        <v>42.64338745775805</v>
+        <v>42.64338745775806</v>
       </c>
       <c r="T11" t="n">
-        <v>8.191834496822196</v>
+        <v>8.191834496822198</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1497079976575157</v>
+        <v>0.1497079976575158</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.001260505559671</v>
+        <v>1.001260505559672</v>
       </c>
       <c r="H12" t="n">
-        <v>9.670068566852619</v>
+        <v>9.670068566852621</v>
       </c>
       <c r="I12" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J12" t="n">
-        <v>94.59716030816179</v>
+        <v>94.5971603081618</v>
       </c>
       <c r="K12" t="n">
         <v>161.6816141806598</v>
@@ -31864,16 +31864,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R12" t="n">
-        <v>62.1659812136084</v>
+        <v>62.16598121360841</v>
       </c>
       <c r="S12" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T12" t="n">
-        <v>4.035782476356744</v>
+        <v>4.035782476356745</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06587240168155736</v>
+        <v>0.06587240168155738</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8394231733409382</v>
+        <v>0.8394231733409383</v>
       </c>
       <c r="H13" t="n">
-        <v>7.463235122976711</v>
+        <v>7.463235122976712</v>
       </c>
       <c r="I13" t="n">
-        <v>25.24374415828931</v>
+        <v>25.24374415828932</v>
       </c>
       <c r="J13" t="n">
         <v>59.34721835520433</v>
@@ -31934,7 +31934,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O13" t="n">
-        <v>118.6486499918628</v>
+        <v>118.6486499918629</v>
       </c>
       <c r="P13" t="n">
         <v>101.5244172557076</v>
@@ -31946,13 +31946,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S13" t="n">
-        <v>14.62885657540525</v>
+        <v>14.62885657540526</v>
       </c>
       <c r="T13" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04578671854586941</v>
+        <v>0.04578671854586942</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.871349970718947</v>
+        <v>1.871349970718948</v>
       </c>
       <c r="H14" t="n">
-        <v>19.16496288762542</v>
+        <v>19.16496288762543</v>
       </c>
       <c r="I14" t="n">
-        <v>72.14521974614229</v>
+        <v>72.1452197461423</v>
       </c>
       <c r="J14" t="n">
         <v>158.8284895773074</v>
@@ -32004,13 +32004,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L14" t="n">
-        <v>295.3130605042305</v>
+        <v>295.3130605042306</v>
       </c>
       <c r="M14" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N14" t="n">
-        <v>333.9096536503088</v>
+        <v>333.9096536503089</v>
       </c>
       <c r="O14" t="n">
         <v>315.3014173789723</v>
@@ -32025,13 +32025,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S14" t="n">
-        <v>42.64338745775805</v>
+        <v>42.64338745775806</v>
       </c>
       <c r="T14" t="n">
-        <v>8.191834496822196</v>
+        <v>8.191834496822198</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1497079976575157</v>
+        <v>0.1497079976575158</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.001260505559671</v>
+        <v>1.001260505559672</v>
       </c>
       <c r="H15" t="n">
-        <v>9.670068566852619</v>
+        <v>9.670068566852621</v>
       </c>
       <c r="I15" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J15" t="n">
-        <v>94.59716030816179</v>
+        <v>94.5971603081618</v>
       </c>
       <c r="K15" t="n">
         <v>161.6816141806598</v>
@@ -32101,16 +32101,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R15" t="n">
-        <v>62.1659812136084</v>
+        <v>62.16598121360841</v>
       </c>
       <c r="S15" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T15" t="n">
-        <v>4.035782476356744</v>
+        <v>4.035782476356745</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06587240168155736</v>
+        <v>0.06587240168155738</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8394231733409382</v>
+        <v>0.8394231733409383</v>
       </c>
       <c r="H16" t="n">
-        <v>7.463235122976711</v>
+        <v>7.463235122976712</v>
       </c>
       <c r="I16" t="n">
-        <v>25.24374415828931</v>
+        <v>25.24374415828932</v>
       </c>
       <c r="J16" t="n">
         <v>59.34721835520433</v>
@@ -32171,7 +32171,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O16" t="n">
-        <v>118.6486499918628</v>
+        <v>118.6486499918629</v>
       </c>
       <c r="P16" t="n">
         <v>101.5244172557076</v>
@@ -32183,13 +32183,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S16" t="n">
-        <v>14.62885657540525</v>
+        <v>14.62885657540526</v>
       </c>
       <c r="T16" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04578671854586941</v>
+        <v>0.04578671854586942</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K11" t="n">
-        <v>23.45512906898446</v>
+        <v>23.45512906898449</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2975246371379</v>
+        <v>65.44080590849302</v>
       </c>
       <c r="M11" t="n">
         <v>104.0051031494127</v>
       </c>
       <c r="N11" t="n">
-        <v>219.7970535656594</v>
+        <v>110.2319166436327</v>
       </c>
       <c r="O11" t="n">
-        <v>90.95566124282774</v>
+        <v>159.2107770917647</v>
       </c>
       <c r="P11" t="n">
-        <v>219.7970535656594</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>102.065151062187</v>
       </c>
       <c r="K12" t="n">
-        <v>27.28621118065976</v>
+        <v>27.28621118065979</v>
       </c>
       <c r="L12" t="n">
-        <v>219.7970535656594</v>
+        <v>82.31036273098908</v>
       </c>
       <c r="M12" t="n">
-        <v>121.2972841964522</v>
+        <v>115.1158932689366</v>
       </c>
       <c r="N12" t="n">
         <v>132.353000539728</v>
       </c>
       <c r="O12" t="n">
-        <v>99.19400660129608</v>
+        <v>99.19400660129611</v>
       </c>
       <c r="P12" t="n">
-        <v>60.57179439847093</v>
+        <v>102.1747250984699</v>
       </c>
       <c r="Q12" t="n">
         <v>209.8081747474151</v>
@@ -35579,7 +35579,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N13" t="n">
-        <v>182.6516585450744</v>
+        <v>182.6516585450745</v>
       </c>
       <c r="O13" t="n">
         <v>153.2168580218339</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K14" t="n">
-        <v>23.45512906898446</v>
+        <v>23.45512906898449</v>
       </c>
       <c r="L14" t="n">
-        <v>65.44080590849296</v>
+        <v>65.44080590849302</v>
       </c>
       <c r="M14" t="n">
-        <v>122.0204295552259</v>
+        <v>104.0051031494127</v>
       </c>
       <c r="N14" t="n">
-        <v>219.7970535656594</v>
+        <v>110.2319166436327</v>
       </c>
       <c r="O14" t="n">
-        <v>219.7970535656594</v>
+        <v>159.2107770917647</v>
       </c>
       <c r="P14" t="n">
-        <v>219.7970535656594</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.28621118065976</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="L15" t="n">
-        <v>82.31036273098906</v>
+        <v>82.31036273098908</v>
       </c>
       <c r="M15" t="n">
         <v>115.1158932689366</v>
       </c>
       <c r="N15" t="n">
-        <v>206.0009509177773</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O15" t="n">
         <v>219.7970535656594</v>
       </c>
       <c r="P15" t="n">
-        <v>219.7970535656594</v>
+        <v>100.9341615587092</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N16" t="n">
-        <v>182.6516585450744</v>
+        <v>182.6516585450745</v>
       </c>
       <c r="O16" t="n">
         <v>153.2168580218339</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K17" t="n">
-        <v>23.45512906898449</v>
+        <v>360.5663581429959</v>
       </c>
       <c r="L17" t="n">
         <v>499.8084690409614</v>
@@ -35895,13 +35895,13 @@
         <v>571.4991779819586</v>
       </c>
       <c r="N17" t="n">
-        <v>565.0727180320962</v>
+        <v>110.2319166436327</v>
       </c>
       <c r="O17" t="n">
         <v>486.9878497560829</v>
       </c>
       <c r="P17" t="n">
-        <v>260.8024602223896</v>
+        <v>220.3628200940963</v>
       </c>
       <c r="Q17" t="n">
         <v>206.1442868091885</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>102.065151062187</v>
       </c>
       <c r="K18" t="n">
-        <v>27.28621118065979</v>
+        <v>302.3300576737416</v>
       </c>
       <c r="L18" t="n">
         <v>467.9843218465866</v>
       </c>
       <c r="M18" t="n">
-        <v>599.4491595689366</v>
+        <v>115.1158932689366</v>
       </c>
       <c r="N18" t="n">
-        <v>618.4665058823784</v>
+        <v>630.8690698570235</v>
       </c>
       <c r="O18" t="n">
-        <v>508.8108186490948</v>
+        <v>393.8243486717656</v>
       </c>
       <c r="P18" t="n">
         <v>391.7730737840055</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>23.45512906898449</v>
       </c>
       <c r="L20" t="n">
-        <v>499.8084690409614</v>
+        <v>382.2899786495485</v>
       </c>
       <c r="M20" t="n">
         <v>571.4991779819586</v>
@@ -36138,7 +36138,7 @@
         <v>486.9878497560829</v>
       </c>
       <c r="P20" t="n">
-        <v>260.8024602223896</v>
+        <v>378.3209506138024</v>
       </c>
       <c r="Q20" t="n">
         <v>206.1442868091885</v>
@@ -36202,7 +36202,7 @@
         <v>102.065151062187</v>
       </c>
       <c r="K21" t="n">
-        <v>201.5263907137086</v>
+        <v>302.3300576737416</v>
       </c>
       <c r="L21" t="n">
         <v>467.9843218465866</v>
@@ -36211,7 +36211,7 @@
         <v>599.4491595689366</v>
       </c>
       <c r="N21" t="n">
-        <v>132.353000539728</v>
+        <v>241.3575083271094</v>
       </c>
       <c r="O21" t="n">
         <v>508.8108186490948</v>
@@ -36220,7 +36220,7 @@
         <v>391.7730737840055</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.8081747474151</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>158.169212442745</v>
+        <v>12.86435536712148</v>
       </c>
       <c r="K23" t="n">
-        <v>23.45512906898449</v>
+        <v>360.5663581429959</v>
       </c>
       <c r="L23" t="n">
         <v>499.8084690409614</v>
       </c>
       <c r="M23" t="n">
-        <v>571.4991779819586</v>
+        <v>104.0051031494127</v>
       </c>
       <c r="N23" t="n">
         <v>565.0727180320962</v>
@@ -36375,7 +36375,7 @@
         <v>486.9878497560829</v>
       </c>
       <c r="P23" t="n">
-        <v>102.6332477796448</v>
+        <v>378.3209506138024</v>
       </c>
       <c r="Q23" t="n">
         <v>206.1442868091885</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>102.065151062187</v>
+        <v>1.261484102153493</v>
       </c>
       <c r="K24" t="n">
         <v>302.3300576737416</v>
@@ -36445,7 +36445,7 @@
         <v>467.9843218465866</v>
       </c>
       <c r="M24" t="n">
-        <v>498.6454926089035</v>
+        <v>599.4491595689366</v>
       </c>
       <c r="N24" t="n">
         <v>132.353000539728</v>
@@ -36600,22 +36600,22 @@
         <v>360.5663581429959</v>
       </c>
       <c r="L26" t="n">
-        <v>499.8084690409614</v>
+        <v>65.44080590849302</v>
       </c>
       <c r="M26" t="n">
-        <v>560.8767213962329</v>
+        <v>571.4991779819586</v>
       </c>
       <c r="N26" t="n">
         <v>565.0727180320962</v>
       </c>
       <c r="O26" t="n">
-        <v>90.95566124282774</v>
+        <v>486.9878497560829</v>
       </c>
       <c r="P26" t="n">
-        <v>378.3209506138024</v>
+        <v>199.8896818381012</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>302.3300576737416</v>
+        <v>27.28621118065979</v>
       </c>
       <c r="L27" t="n">
-        <v>467.9843218465866</v>
+        <v>455.5817578719412</v>
       </c>
       <c r="M27" t="n">
         <v>599.4491595689366</v>
@@ -36688,7 +36688,7 @@
         <v>630.8690698570235</v>
       </c>
       <c r="O27" t="n">
-        <v>221.3644081813676</v>
+        <v>508.8108186490948</v>
       </c>
       <c r="P27" t="n">
         <v>391.7730737840055</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K29" t="n">
-        <v>360.5663581429959</v>
+        <v>143.7996147480818</v>
       </c>
       <c r="L29" t="n">
         <v>499.8084690409614</v>
@@ -36852,7 +36852,7 @@
         <v>378.3209506138024</v>
       </c>
       <c r="Q29" t="n">
-        <v>147.5467558570191</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.261484102153493</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>302.3300576737416</v>
+        <v>27.28621118065979</v>
       </c>
       <c r="L30" t="n">
-        <v>467.9843218465866</v>
+        <v>455.5817578719412</v>
       </c>
       <c r="M30" t="n">
         <v>599.4491595689366</v>
       </c>
       <c r="N30" t="n">
-        <v>132.353000539728</v>
+        <v>630.8690698570235</v>
       </c>
       <c r="O30" t="n">
         <v>508.8108186490948</v>
@@ -36931,7 +36931,7 @@
         <v>391.7730737840055</v>
       </c>
       <c r="Q30" t="n">
-        <v>209.8081747474151</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K32" t="n">
         <v>360.5663581429959</v>
@@ -37080,13 +37080,13 @@
         <v>571.4991779819586</v>
       </c>
       <c r="N32" t="n">
-        <v>316.5872853758603</v>
+        <v>565.0727180320962</v>
       </c>
       <c r="O32" t="n">
-        <v>486.9878497560829</v>
+        <v>415.0038611554442</v>
       </c>
       <c r="P32" t="n">
-        <v>378.3209506138024</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>102.065151062187</v>
       </c>
       <c r="K33" t="n">
         <v>302.3300576737416</v>
@@ -37162,13 +37162,13 @@
         <v>630.8690698570235</v>
       </c>
       <c r="O33" t="n">
-        <v>508.8108186490948</v>
+        <v>99.19400660129611</v>
       </c>
       <c r="P33" t="n">
-        <v>104.3266633162786</v>
+        <v>202.0701495544752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>499.8084690409614</v>
       </c>
       <c r="M35" t="n">
-        <v>116.8694585165342</v>
+        <v>512.9016470297895</v>
       </c>
       <c r="N35" t="n">
         <v>565.0727180320962</v>
       </c>
       <c r="O35" t="n">
-        <v>486.9878497560829</v>
+        <v>90.95566124282774</v>
       </c>
       <c r="P35" t="n">
         <v>378.3209506138024</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>102.065151062187</v>
       </c>
       <c r="K36" t="n">
         <v>302.3300576737416</v>
@@ -37393,10 +37393,10 @@
         <v>467.9843218465866</v>
       </c>
       <c r="M36" t="n">
-        <v>115.1158932689366</v>
+        <v>498.6454926089031</v>
       </c>
       <c r="N36" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O36" t="n">
         <v>508.8108186490948</v>
@@ -37405,7 +37405,7 @@
         <v>391.7730737840055</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.8868558322723</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>12.86435536712148</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>360.5663581429959</v>
       </c>
       <c r="L38" t="n">
-        <v>499.8084690409614</v>
+        <v>441.2109380887924</v>
       </c>
       <c r="M38" t="n">
-        <v>104.0051031494127</v>
+        <v>571.4991779819586</v>
       </c>
       <c r="N38" t="n">
         <v>565.0727180320962</v>
       </c>
       <c r="O38" t="n">
-        <v>486.9878497560829</v>
+        <v>90.95566124282774</v>
       </c>
       <c r="P38" t="n">
         <v>378.3209506138024</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>102.065151062187</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>302.3300576737416</v>
       </c>
       <c r="L39" t="n">
-        <v>409.6740397022072</v>
+        <v>467.9843218465866</v>
       </c>
       <c r="M39" t="n">
-        <v>599.4491595689366</v>
+        <v>115.1158932689366</v>
       </c>
       <c r="N39" t="n">
         <v>630.8690698570235</v>
       </c>
       <c r="O39" t="n">
-        <v>508.8108186490948</v>
+        <v>495.8894997339524</v>
       </c>
       <c r="P39" t="n">
-        <v>60.57179439847093</v>
+        <v>391.7730737840055</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>158.169212442745</v>
       </c>
       <c r="K41" t="n">
-        <v>219.7970535656594</v>
+        <v>23.45512906898449</v>
       </c>
       <c r="L41" t="n">
         <v>65.44080590849302</v>
       </c>
       <c r="M41" t="n">
-        <v>104.0051031494127</v>
+        <v>172.2602189983497</v>
       </c>
       <c r="N41" t="n">
         <v>110.2319166436327</v>
       </c>
       <c r="O41" t="n">
-        <v>169.0131394042783</v>
+        <v>90.95566124282774</v>
       </c>
       <c r="P41" t="n">
         <v>43.65029411546044</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>102.065151062187</v>
       </c>
       <c r="K42" t="n">
-        <v>219.7970535656594</v>
+        <v>27.28621118065979</v>
       </c>
       <c r="L42" t="n">
-        <v>141.2106257934035</v>
+        <v>82.31036273098908</v>
       </c>
       <c r="M42" t="n">
         <v>115.1158932689366</v>
       </c>
       <c r="N42" t="n">
-        <v>132.353000539728</v>
+        <v>173.9559312397269</v>
       </c>
       <c r="O42" t="n">
         <v>99.19400660129611</v>
@@ -37879,7 +37879,7 @@
         <v>60.57179439847093</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>158.169212442745</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>23.45512906898449</v>
+        <v>185.875546096442</v>
       </c>
       <c r="L44" t="n">
-        <v>65.44080590849302</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="M44" t="n">
-        <v>104.0051031494127</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="N44" t="n">
-        <v>178.4870324925697</v>
+        <v>110.2319166436327</v>
       </c>
       <c r="O44" t="n">
         <v>90.95566124282774</v>
@@ -38037,7 +38037,7 @@
         <v>43.65029411546044</v>
       </c>
       <c r="Q44" t="n">
-        <v>206.1442868091885</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>102.065151062187</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>27.28621118065979</v>
+        <v>170.9542929428456</v>
       </c>
       <c r="L45" t="n">
-        <v>219.7970535656594</v>
+        <v>82.31036273098908</v>
       </c>
       <c r="M45" t="n">
         <v>115.1158932689366</v>
@@ -38110,13 +38110,13 @@
         <v>132.353000539728</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1184212140399</v>
+        <v>99.19400660129611</v>
       </c>
       <c r="P45" t="n">
         <v>60.57179439847093</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
